--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_NGIN.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_NGIN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="NGIN" sheetId="2" r:id="rId1"/>
+    <sheet name="NGIN" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="346">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -1063,6 +1063,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1150,49 +1151,49 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1209,10 +1210,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1247,7 +1248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1282,7 +1283,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1376,21 +1377,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1407,7 +1408,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1459,185 +1460,185 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GE4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:GF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="2" collapsed="1"/>
-    <col min="13" max="13" width="21" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.140625" style="2" collapsed="1"/>
-    <col min="25" max="25" width="19.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="23.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="13.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="16.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="38" width="9.140625" style="2" collapsed="1"/>
-    <col min="39" max="39" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="41" width="9.140625" style="2" collapsed="1"/>
-    <col min="42" max="42" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="14.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="45" width="9.140625" style="2" collapsed="1"/>
-    <col min="46" max="46" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="11" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="19.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="26.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="30.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="16" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="59" width="9.140625" style="2" collapsed="1"/>
-    <col min="60" max="60" width="53.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="65.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="30.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="16" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="10.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="28.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="25.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="15.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="80" max="80" width="22" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="81" max="82" width="39" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="32.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="85" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="19.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="88" width="30.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="89" max="89" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="39.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="13.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="23" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="30.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="103" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="19.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="21.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="19.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="109" max="110" width="19.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="17.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="24.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="113" max="113" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="114" width="36.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="115" width="20.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="116" max="116" width="30.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="117" max="117" width="26.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="118" max="118" width="39.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="119" max="120" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="121" max="122" width="28.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="123" max="123" width="41.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="124" max="124" width="35.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="125" max="125" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="126" max="126" width="18" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="127" max="127" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="128" max="128" width="34.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="129" max="129" width="37.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="130" max="130" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="131" max="131" width="34.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="132" max="132" width="24.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="133" max="133" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="134" max="134" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="135" max="135" width="41.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="136" max="136" width="40.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="137" max="137" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="138" max="138" width="22.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="139" max="139" width="28.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="140" max="140" width="38.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="141" max="141" width="42.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="142" max="142" width="32.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="143" max="143" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="144" max="146" width="41.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="147" max="149" width="9.140625" style="2" collapsed="1"/>
-    <col min="150" max="150" width="29.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="151" max="159" width="9.140625" style="2" collapsed="1"/>
-    <col min="160" max="160" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="161" max="161" width="27.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="162" max="162" width="14.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="163" max="163" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="164" max="164" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="165" max="165" width="48.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="166" max="166" width="50" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="167" max="167" width="48.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="168" max="168" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="169" max="169" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="170" max="170" width="27.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="171" max="171" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="172" max="172" width="21.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="173" max="173" width="22" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="174" max="174" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="175" max="175" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="176" max="176" width="44.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="177" max="177" width="42.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="178" max="178" width="46.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="179" max="179" width="48.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="180" max="180" width="49" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="181" max="181" width="47.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="182" max="183" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="184" max="184" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="185" max="186" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="187" max="189" width="9.140625" style="2" collapsed="1"/>
-    <col min="190" max="191" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="192" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="21.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="17.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.0" collapsed="true"/>
+    <col min="12" max="12" style="2" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="21.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="17.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="28.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="24" max="24" style="2" width="9.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="19.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="18.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="22.42578125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="12.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="32" max="33" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="16.140625" collapsed="true"/>
+    <col min="36" max="38" style="2" width="9.140625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="40" max="41" style="2" width="9.140625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="26.85546875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="14.85546875" collapsed="true"/>
+    <col min="44" max="45" style="2" width="9.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="11.0" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="22.42578125" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="19.28515625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="23.42578125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="26.85546875" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="26.7109375" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="2" width="30.140625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="2" width="16.0" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
+    <col min="58" max="59" style="2" width="9.140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="53.85546875" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="2" width="26.85546875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="2" width="65.28515625" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="2" width="30.140625" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="16.0" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="10.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="18.42578125" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" style="2" width="25.140625" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" style="2" width="22.42578125" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="2" width="16.42578125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="2" width="15.85546875" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="80" max="80" bestFit="true" customWidth="true" style="2" width="22.0" collapsed="true"/>
+    <col min="81" max="82" bestFit="true" customWidth="true" style="2" width="39.0" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" style="2" width="32.85546875" collapsed="true"/>
+    <col min="84" max="85" bestFit="true" customWidth="true" style="2" width="38.7109375" collapsed="true"/>
+    <col min="86" max="86" bestFit="true" customWidth="true" style="2" width="19.140625" collapsed="true"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" style="2" width="23.42578125" collapsed="true"/>
+    <col min="88" max="88" bestFit="true" customWidth="true" style="2" width="30.7109375" collapsed="true"/>
+    <col min="89" max="89" bestFit="true" customWidth="true" style="2" width="25.7109375" collapsed="true"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" style="2" width="39.5703125" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="2" width="18.42578125" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="2" width="25.85546875" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" style="2" width="13.5703125" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="2" width="23.0" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" style="2" width="30.85546875" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="25.85546875" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" style="2" width="22.7109375" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="18.42578125" collapsed="true"/>
+    <col min="102" max="103" bestFit="true" customWidth="true" style="2" width="25.85546875" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" style="2" width="25.7109375" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="19.140625" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="109" max="110" bestFit="true" customWidth="true" style="2" width="19.7109375" collapsed="true"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" style="2" width="17.5703125" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" style="2" width="24.7109375" collapsed="true"/>
+    <col min="113" max="113" bestFit="true" customWidth="true" style="2" width="38.7109375" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" style="2" width="36.85546875" collapsed="true"/>
+    <col min="115" max="115" bestFit="true" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
+    <col min="116" max="116" bestFit="true" customWidth="true" style="2" width="30.7109375" collapsed="true"/>
+    <col min="117" max="117" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="118" max="118" bestFit="true" customWidth="true" style="2" width="39.5703125" collapsed="true"/>
+    <col min="119" max="120" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
+    <col min="121" max="122" bestFit="true" customWidth="true" style="2" width="28.5703125" collapsed="true"/>
+    <col min="123" max="123" bestFit="true" customWidth="true" style="2" width="41.140625" collapsed="true"/>
+    <col min="124" max="124" bestFit="true" customWidth="true" style="2" width="35.5703125" collapsed="true"/>
+    <col min="125" max="125" bestFit="true" customWidth="true" style="2" width="25.7109375" collapsed="true"/>
+    <col min="126" max="126" bestFit="true" customWidth="true" style="2" width="18.0" collapsed="true"/>
+    <col min="127" max="127" bestFit="true" customWidth="true" style="2" width="25.7109375" collapsed="true"/>
+    <col min="128" max="128" bestFit="true" customWidth="true" style="2" width="34.28515625" collapsed="true"/>
+    <col min="129" max="129" bestFit="true" customWidth="true" style="2" width="37.5703125" collapsed="true"/>
+    <col min="130" max="130" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
+    <col min="131" max="131" bestFit="true" customWidth="true" style="2" width="34.140625" collapsed="true"/>
+    <col min="132" max="132" bestFit="true" customWidth="true" style="2" width="24.7109375" collapsed="true"/>
+    <col min="133" max="133" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="134" max="134" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
+    <col min="135" max="135" bestFit="true" customWidth="true" style="2" width="41.140625" collapsed="true"/>
+    <col min="136" max="136" bestFit="true" customWidth="true" style="2" width="40.140625" collapsed="true"/>
+    <col min="137" max="137" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="138" max="138" bestFit="true" customWidth="true" style="2" width="22.5703125" collapsed="true"/>
+    <col min="139" max="139" bestFit="true" customWidth="true" style="2" width="28.5703125" collapsed="true"/>
+    <col min="140" max="140" bestFit="true" customWidth="true" style="2" width="38.85546875" collapsed="true"/>
+    <col min="141" max="141" bestFit="true" customWidth="true" style="2" width="42.28515625" collapsed="true"/>
+    <col min="142" max="142" bestFit="true" customWidth="true" style="2" width="32.28515625" collapsed="true"/>
+    <col min="143" max="143" bestFit="true" customWidth="true" style="2" width="38.7109375" collapsed="true"/>
+    <col min="144" max="146" bestFit="true" customWidth="true" style="2" width="41.140625" collapsed="true"/>
+    <col min="147" max="149" style="2" width="9.140625" collapsed="true"/>
+    <col min="150" max="150" bestFit="true" customWidth="true" style="2" width="29.28515625" collapsed="true"/>
+    <col min="151" max="159" style="2" width="9.140625" collapsed="true"/>
+    <col min="160" max="160" bestFit="true" customWidth="true" style="2" width="38.7109375" collapsed="true"/>
+    <col min="161" max="161" bestFit="true" customWidth="true" style="2" width="27.7109375" collapsed="true"/>
+    <col min="162" max="162" bestFit="true" customWidth="true" style="2" width="14.85546875" collapsed="true"/>
+    <col min="163" max="163" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="164" max="164" bestFit="true" customWidth="true" style="2" width="26.85546875" collapsed="true"/>
+    <col min="165" max="165" bestFit="true" customWidth="true" style="2" width="48.42578125" collapsed="true"/>
+    <col min="166" max="166" bestFit="true" customWidth="true" style="2" width="50.0" collapsed="true"/>
+    <col min="167" max="167" bestFit="true" customWidth="true" style="2" width="48.42578125" collapsed="true"/>
+    <col min="168" max="168" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
+    <col min="169" max="169" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="170" max="170" bestFit="true" customWidth="true" style="2" width="27.7109375" collapsed="true"/>
+    <col min="171" max="171" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="172" max="172" bestFit="true" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
+    <col min="173" max="173" bestFit="true" customWidth="true" style="2" width="22.0" collapsed="true"/>
+    <col min="174" max="174" bestFit="true" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="175" max="175" bestFit="true" customWidth="true" style="2" width="23.42578125" collapsed="true"/>
+    <col min="176" max="176" bestFit="true" customWidth="true" style="2" width="44.7109375" collapsed="true"/>
+    <col min="177" max="177" bestFit="true" customWidth="true" style="2" width="42.85546875" collapsed="true"/>
+    <col min="178" max="178" bestFit="true" customWidth="true" style="2" width="46.42578125" collapsed="true"/>
+    <col min="179" max="179" bestFit="true" customWidth="true" style="2" width="48.7109375" collapsed="true"/>
+    <col min="180" max="180" bestFit="true" customWidth="true" style="2" width="49.0" collapsed="true"/>
+    <col min="181" max="181" bestFit="true" customWidth="true" style="2" width="47.140625" collapsed="true"/>
+    <col min="182" max="183" bestFit="true" customWidth="true" style="2" width="22.42578125" collapsed="true"/>
+    <col min="184" max="184" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
+    <col min="185" max="186" bestFit="true" customWidth="true" style="2" width="22.7109375" collapsed="true"/>
+    <col min="187" max="189" style="2" width="9.140625" collapsed="true"/>
+    <col min="190" max="191" bestFit="true" customWidth="true" style="2" width="22.7109375" collapsed="true"/>
+    <col min="192" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:187">
@@ -2615,7 +2616,7 @@
       <c r="EG2" t="s">
         <v>312</v>
       </c>
-      <c r="EH2" s="9" t="s">
+      <c r="EH2" t="s">
         <v>318</v>
       </c>
       <c r="EI2" s="9" t="s">
@@ -3176,10 +3177,10 @@
         <v>251</v>
       </c>
       <c r="EG3" t="s">
-        <v>285</v>
-      </c>
-      <c r="EH3" s="9" t="s">
-        <v>344</v>
+        <v>312</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>318</v>
       </c>
       <c r="EI3" s="9" t="s">
         <v>345</v>
@@ -3739,10 +3740,10 @@
         <v>251</v>
       </c>
       <c r="EG4" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="EH4" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="EI4" s="9" t="s">
         <v>289</v>
@@ -3894,23 +3895,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AP2" r:id="rId1" display="NGINUser_1306@gmail.com"/>
-    <hyperlink ref="AW2" r:id="rId2" display="NGINUseredit_1306@gmail.com"/>
-    <hyperlink ref="M2" r:id="rId3" display="ngin1306@test.com"/>
-    <hyperlink ref="BK2" r:id="rId4" display="nginreseller1306@gmail.com"/>
-    <hyperlink ref="BS2" r:id="rId5" display="nginreselleredit1306@gmail.com"/>
-    <hyperlink ref="AP3" r:id="rId6" display="NGINUser_1306@gmail.com"/>
-    <hyperlink ref="AW3" r:id="rId7" display="NGINUseredit_1306@gmail.com"/>
-    <hyperlink ref="M3" r:id="rId8" display="ngin1306@test.com"/>
-    <hyperlink ref="BK3" r:id="rId9" display="nginreseller1306@gmail.com"/>
-    <hyperlink ref="BS3" r:id="rId10" display="nginreselleredit1306@gmail.com"/>
-    <hyperlink ref="AP4" r:id="rId11" display="NGINUser_1306@gmail.com"/>
-    <hyperlink ref="AW4" r:id="rId12" display="NGINUseredit_1306@gmail.com"/>
-    <hyperlink ref="M4" r:id="rId13" display="ngin1306@test.com"/>
-    <hyperlink ref="BK4" r:id="rId14" display="nginreseller1306@gmail.com"/>
-    <hyperlink ref="BS4" r:id="rId15" display="nginreselleredit1306@gmail.com"/>
+    <hyperlink display="NGINUser_1306@gmail.com" r:id="rId1" ref="AP2"/>
+    <hyperlink display="NGINUseredit_1306@gmail.com" r:id="rId2" ref="AW2"/>
+    <hyperlink display="ngin1306@test.com" r:id="rId3" ref="M2"/>
+    <hyperlink display="nginreseller1306@gmail.com" r:id="rId4" ref="BK2"/>
+    <hyperlink display="nginreselleredit1306@gmail.com" r:id="rId5" ref="BS2"/>
+    <hyperlink display="NGINUser_1306@gmail.com" r:id="rId6" ref="AP3"/>
+    <hyperlink display="NGINUseredit_1306@gmail.com" r:id="rId7" ref="AW3"/>
+    <hyperlink display="ngin1306@test.com" r:id="rId8" ref="M3"/>
+    <hyperlink display="nginreseller1306@gmail.com" r:id="rId9" ref="BK3"/>
+    <hyperlink display="nginreselleredit1306@gmail.com" r:id="rId10" ref="BS3"/>
+    <hyperlink display="NGINUser_1306@gmail.com" r:id="rId11" ref="AP4"/>
+    <hyperlink display="NGINUseredit_1306@gmail.com" r:id="rId12" ref="AW4"/>
+    <hyperlink display="ngin1306@test.com" r:id="rId13" ref="M4"/>
+    <hyperlink display="nginreseller1306@gmail.com" r:id="rId14" ref="BK4"/>
+    <hyperlink display="nginreselleredit1306@gmail.com" r:id="rId15" ref="BS4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_NGIN.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_NGIN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="NGIN" sheetId="2" r:id="rId1"/>
+    <sheet name="NGIN" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="319">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -982,6 +982,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1055,46 +1056,46 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1111,10 +1112,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1149,7 +1150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1184,7 +1185,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1278,21 +1279,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1309,7 +1310,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1361,194 +1362,194 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GE4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:GF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="2" collapsed="1"/>
-    <col min="13" max="13" width="21" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="19.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="23.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="13.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="33" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="16.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="38" width="9.140625" style="2" collapsed="1"/>
-    <col min="39" max="39" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="41" width="9.140625" style="2" collapsed="1"/>
-    <col min="42" max="42" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="14.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="45" width="9.140625" style="2" collapsed="1"/>
-    <col min="46" max="46" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="11" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="19.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="26.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="30.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="16" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="59" width="9.140625" style="2" collapsed="1"/>
-    <col min="60" max="60" width="53.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="63" width="65.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="16" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="10.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="28.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="25.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="15.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="79" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="80" max="80" width="22" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="81" max="82" width="39" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="32.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="85" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="79.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="88" width="30.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="89" max="89" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="39.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="13.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="23" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="30.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="103" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="19.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="21.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="106" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="107" max="107" width="19.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="109" max="110" width="19.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="17.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="112" max="112" width="24.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="113" max="113" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="114" max="114" width="36.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="115" width="20.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="116" max="116" width="30.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="117" max="117" width="26.140625" style="2" customWidth="1" collapsed="1"/>
-    <col min="118" max="118" width="39.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="119" max="120" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="121" max="122" width="28.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="123" max="123" width="41.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="124" max="124" width="35.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="125" max="125" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="126" max="126" width="18" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="127" max="127" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="128" max="128" width="34.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="129" max="129" width="37.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="130" max="130" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="131" max="131" width="34.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="132" max="132" width="24.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="133" max="133" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="134" max="134" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="135" max="135" width="41.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="136" max="136" width="40.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="137" max="137" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="138" max="138" width="22.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="139" max="139" width="28.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="140" max="140" width="38.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="141" max="141" width="42.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="142" max="142" width="32.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="143" max="143" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="144" max="146" width="41.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="147" max="147" width="37.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="148" max="148" width="27.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="149" max="149" width="34.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="150" max="150" width="29.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="151" max="151" width="13.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="152" max="152" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="153" max="154" width="9.140625" style="2" collapsed="1"/>
-    <col min="155" max="155" width="16.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="156" max="157" width="22.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="158" max="159" width="9.140625" style="2" collapsed="1"/>
-    <col min="160" max="160" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="161" max="161" width="27.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="162" max="162" width="24" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="163" max="163" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="164" max="164" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="165" max="165" width="48.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="166" max="166" width="50" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="167" max="167" width="48.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="168" max="168" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="169" max="169" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="170" max="170" width="27.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="171" max="171" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="172" max="172" width="21.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="173" max="173" width="22" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="174" max="174" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="175" max="175" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="176" max="176" width="44.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="177" max="177" width="42.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="178" max="178" width="46.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="179" max="179" width="48.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="180" max="180" width="49" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="181" max="181" width="47.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="182" max="183" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="184" max="184" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="185" max="187" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="188" max="188" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="189" max="189" width="9.140625" style="2" collapsed="1"/>
-    <col min="190" max="191" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="192" max="220" width="9.140625" style="2" collapsed="1"/>
-    <col min="221" max="221" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="222" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="21.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="17.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.0" collapsed="true"/>
+    <col min="12" max="12" style="2" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="21.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="17.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="28.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="19.7109375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="18.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="22.42578125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="12.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
+    <col min="32" max="33" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="16.140625" collapsed="true"/>
+    <col min="36" max="38" style="2" width="9.140625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="40" max="41" style="2" width="9.140625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="26.85546875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="14.85546875" collapsed="true"/>
+    <col min="44" max="45" style="2" width="9.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="11.0" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="22.42578125" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="19.28515625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="23.42578125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="26.85546875" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="26.7109375" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="2" width="30.140625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="2" width="16.0" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
+    <col min="58" max="59" style="2" width="9.140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="53.85546875" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="2" width="26.85546875" collapsed="true"/>
+    <col min="62" max="63" bestFit="true" customWidth="true" style="2" width="65.28515625" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="16.0" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="10.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="18.42578125" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" style="2" width="25.140625" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" style="2" width="22.42578125" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="2" width="16.42578125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="2" width="15.85546875" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
+    <col min="80" max="80" bestFit="true" customWidth="true" style="2" width="22.0" collapsed="true"/>
+    <col min="81" max="82" bestFit="true" customWidth="true" style="2" width="39.0" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" style="2" width="32.85546875" collapsed="true"/>
+    <col min="84" max="85" bestFit="true" customWidth="true" style="2" width="38.7109375" collapsed="true"/>
+    <col min="86" max="86" bestFit="true" customWidth="true" style="2" width="79.140625" collapsed="true"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" style="2" width="23.42578125" collapsed="true"/>
+    <col min="88" max="88" bestFit="true" customWidth="true" style="2" width="30.7109375" collapsed="true"/>
+    <col min="89" max="89" bestFit="true" customWidth="true" style="2" width="25.7109375" collapsed="true"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" style="2" width="39.5703125" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" style="2" width="18.42578125" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" style="2" width="25.85546875" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" style="2" width="13.5703125" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" style="2" width="23.0" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" style="2" width="30.85546875" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="25.85546875" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" style="2" width="22.7109375" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="18.42578125" collapsed="true"/>
+    <col min="102" max="103" bestFit="true" customWidth="true" style="2" width="25.85546875" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" style="2" width="25.7109375" collapsed="true"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="19.140625" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="109" max="110" bestFit="true" customWidth="true" style="2" width="19.7109375" collapsed="true"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" style="2" width="17.5703125" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" style="2" width="24.7109375" collapsed="true"/>
+    <col min="113" max="113" bestFit="true" customWidth="true" style="2" width="38.7109375" collapsed="true"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" style="2" width="36.85546875" collapsed="true"/>
+    <col min="115" max="115" bestFit="true" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
+    <col min="116" max="116" bestFit="true" customWidth="true" style="2" width="30.7109375" collapsed="true"/>
+    <col min="117" max="117" customWidth="true" style="2" width="26.140625" collapsed="true"/>
+    <col min="118" max="118" bestFit="true" customWidth="true" style="2" width="39.5703125" collapsed="true"/>
+    <col min="119" max="120" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
+    <col min="121" max="122" bestFit="true" customWidth="true" style="2" width="28.5703125" collapsed="true"/>
+    <col min="123" max="123" bestFit="true" customWidth="true" style="2" width="41.140625" collapsed="true"/>
+    <col min="124" max="124" bestFit="true" customWidth="true" style="2" width="35.5703125" collapsed="true"/>
+    <col min="125" max="125" bestFit="true" customWidth="true" style="2" width="25.7109375" collapsed="true"/>
+    <col min="126" max="126" bestFit="true" customWidth="true" style="2" width="18.0" collapsed="true"/>
+    <col min="127" max="127" bestFit="true" customWidth="true" style="2" width="25.7109375" collapsed="true"/>
+    <col min="128" max="128" bestFit="true" customWidth="true" style="2" width="34.28515625" collapsed="true"/>
+    <col min="129" max="129" bestFit="true" customWidth="true" style="2" width="37.5703125" collapsed="true"/>
+    <col min="130" max="130" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
+    <col min="131" max="131" bestFit="true" customWidth="true" style="2" width="34.140625" collapsed="true"/>
+    <col min="132" max="132" bestFit="true" customWidth="true" style="2" width="24.7109375" collapsed="true"/>
+    <col min="133" max="133" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
+    <col min="134" max="134" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
+    <col min="135" max="135" bestFit="true" customWidth="true" style="2" width="41.140625" collapsed="true"/>
+    <col min="136" max="136" bestFit="true" customWidth="true" style="2" width="40.140625" collapsed="true"/>
+    <col min="137" max="137" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
+    <col min="138" max="138" bestFit="true" customWidth="true" style="2" width="22.5703125" collapsed="true"/>
+    <col min="139" max="139" bestFit="true" customWidth="true" style="2" width="28.5703125" collapsed="true"/>
+    <col min="140" max="140" bestFit="true" customWidth="true" style="2" width="38.85546875" collapsed="true"/>
+    <col min="141" max="141" bestFit="true" customWidth="true" style="2" width="42.28515625" collapsed="true"/>
+    <col min="142" max="142" bestFit="true" customWidth="true" style="2" width="32.28515625" collapsed="true"/>
+    <col min="143" max="143" bestFit="true" customWidth="true" style="2" width="38.7109375" collapsed="true"/>
+    <col min="144" max="146" bestFit="true" customWidth="true" style="2" width="41.140625" collapsed="true"/>
+    <col min="147" max="147" bestFit="true" customWidth="true" style="2" width="37.5703125" collapsed="true"/>
+    <col min="148" max="148" bestFit="true" customWidth="true" style="2" width="27.7109375" collapsed="true"/>
+    <col min="149" max="149" bestFit="true" customWidth="true" style="2" width="34.140625" collapsed="true"/>
+    <col min="150" max="150" bestFit="true" customWidth="true" style="2" width="29.28515625" collapsed="true"/>
+    <col min="151" max="151" bestFit="true" customWidth="true" style="2" width="13.85546875" collapsed="true"/>
+    <col min="152" max="152" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
+    <col min="153" max="154" style="2" width="9.140625" collapsed="true"/>
+    <col min="155" max="155" bestFit="true" customWidth="true" style="2" width="16.85546875" collapsed="true"/>
+    <col min="156" max="157" bestFit="true" customWidth="true" style="2" width="22.5703125" collapsed="true"/>
+    <col min="158" max="159" style="2" width="9.140625" collapsed="true"/>
+    <col min="160" max="160" bestFit="true" customWidth="true" style="2" width="38.7109375" collapsed="true"/>
+    <col min="161" max="161" bestFit="true" customWidth="true" style="2" width="27.7109375" collapsed="true"/>
+    <col min="162" max="162" bestFit="true" customWidth="true" style="2" width="24.0" collapsed="true"/>
+    <col min="163" max="163" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="164" max="164" bestFit="true" customWidth="true" style="2" width="26.85546875" collapsed="true"/>
+    <col min="165" max="165" bestFit="true" customWidth="true" style="2" width="48.42578125" collapsed="true"/>
+    <col min="166" max="166" bestFit="true" customWidth="true" style="2" width="50.0" collapsed="true"/>
+    <col min="167" max="167" bestFit="true" customWidth="true" style="2" width="48.42578125" collapsed="true"/>
+    <col min="168" max="168" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
+    <col min="169" max="169" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="170" max="170" bestFit="true" customWidth="true" style="2" width="27.7109375" collapsed="true"/>
+    <col min="171" max="171" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="172" max="172" bestFit="true" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
+    <col min="173" max="173" bestFit="true" customWidth="true" style="2" width="22.0" collapsed="true"/>
+    <col min="174" max="174" bestFit="true" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="175" max="175" bestFit="true" customWidth="true" style="2" width="23.42578125" collapsed="true"/>
+    <col min="176" max="176" bestFit="true" customWidth="true" style="2" width="44.7109375" collapsed="true"/>
+    <col min="177" max="177" bestFit="true" customWidth="true" style="2" width="42.85546875" collapsed="true"/>
+    <col min="178" max="178" bestFit="true" customWidth="true" style="2" width="46.42578125" collapsed="true"/>
+    <col min="179" max="179" bestFit="true" customWidth="true" style="2" width="48.7109375" collapsed="true"/>
+    <col min="180" max="180" bestFit="true" customWidth="true" style="2" width="49.0" collapsed="true"/>
+    <col min="181" max="181" bestFit="true" customWidth="true" style="2" width="47.140625" collapsed="true"/>
+    <col min="182" max="183" bestFit="true" customWidth="true" style="2" width="22.42578125" collapsed="true"/>
+    <col min="184" max="184" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
+    <col min="185" max="187" bestFit="true" customWidth="true" style="2" width="22.7109375" collapsed="true"/>
+    <col min="188" max="188" bestFit="true" customWidth="true" style="2" width="22.42578125" collapsed="true"/>
+    <col min="189" max="189" style="2" width="9.140625" collapsed="true"/>
+    <col min="190" max="191" bestFit="true" customWidth="true" style="2" width="22.7109375" collapsed="true"/>
+    <col min="192" max="220" style="2" width="9.140625" collapsed="true"/>
+    <col min="221" max="221" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
+    <col min="222" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:187">
@@ -2604,7 +2605,7 @@
       <c r="FG2" t="s">
         <v>312</v>
       </c>
-      <c r="FH2" s="9" t="s">
+      <c r="FH2" t="s">
         <v>317</v>
       </c>
       <c r="FI2" s="9" t="s">
@@ -3165,10 +3166,10 @@
         <v>266</v>
       </c>
       <c r="FG3" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="FH3" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="FI3" s="9" t="s">
         <v>267</v>
@@ -3728,10 +3729,10 @@
         <v>266</v>
       </c>
       <c r="FG4" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="FH4" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="FI4" s="9" t="s">
         <v>267</v>
@@ -3805,23 +3806,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AP2" r:id="rId1" display="NGINUser_1306@gmail.com"/>
-    <hyperlink ref="AW2" r:id="rId2" display="NGINUseredit_1306@gmail.com"/>
-    <hyperlink ref="M2" r:id="rId3" display="ngin1306@test.com"/>
-    <hyperlink ref="CI2" r:id="rId4" display="nginreseller1306@gmail.com"/>
-    <hyperlink ref="CQ2" r:id="rId5" display="nginreselleredit1306@gmail.com"/>
-    <hyperlink ref="AP3" r:id="rId6" display="NGINUser_1306@gmail.com"/>
-    <hyperlink ref="AW3" r:id="rId7" display="NGINUseredit_1306@gmail.com"/>
-    <hyperlink ref="M3" r:id="rId8" display="ngin1306@test.com"/>
-    <hyperlink ref="CI3" r:id="rId9" display="nginreseller1306@gmail.com"/>
-    <hyperlink ref="CQ3" r:id="rId10" display="nginreselleredit1306@gmail.com"/>
-    <hyperlink ref="AP4" r:id="rId11" display="NGINUser_1306@gmail.com"/>
-    <hyperlink ref="AW4" r:id="rId12" display="NGINUseredit_1306@gmail.com"/>
-    <hyperlink ref="M4" r:id="rId13" display="ngin1306@test.com"/>
-    <hyperlink ref="CI4" r:id="rId14" display="nginreseller1306@gmail.com"/>
-    <hyperlink ref="CQ4" r:id="rId15" display="nginreselleredit1306@gmail.com"/>
+    <hyperlink display="NGINUser_1306@gmail.com" r:id="rId1" ref="AP2"/>
+    <hyperlink display="NGINUseredit_1306@gmail.com" r:id="rId2" ref="AW2"/>
+    <hyperlink display="ngin1306@test.com" r:id="rId3" ref="M2"/>
+    <hyperlink display="nginreseller1306@gmail.com" r:id="rId4" ref="CI2"/>
+    <hyperlink display="nginreselleredit1306@gmail.com" r:id="rId5" ref="CQ2"/>
+    <hyperlink display="NGINUser_1306@gmail.com" r:id="rId6" ref="AP3"/>
+    <hyperlink display="NGINUseredit_1306@gmail.com" r:id="rId7" ref="AW3"/>
+    <hyperlink display="ngin1306@test.com" r:id="rId8" ref="M3"/>
+    <hyperlink display="nginreseller1306@gmail.com" r:id="rId9" ref="CI3"/>
+    <hyperlink display="nginreselleredit1306@gmail.com" r:id="rId10" ref="CQ3"/>
+    <hyperlink display="NGINUser_1306@gmail.com" r:id="rId11" ref="AP4"/>
+    <hyperlink display="NGINUseredit_1306@gmail.com" r:id="rId12" ref="AW4"/>
+    <hyperlink display="ngin1306@test.com" r:id="rId13" ref="M4"/>
+    <hyperlink display="nginreseller1306@gmail.com" r:id="rId14" ref="CI4"/>
+    <hyperlink display="nginreselleredit1306@gmail.com" r:id="rId15" ref="CQ4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_NGIN.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_NGIN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="NGIN" r:id="rId1" sheetId="2"/>
+    <sheet name="NGIN" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="404">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -768,9 +768,6 @@
     <t>Run</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>newCustomerCreation</t>
   </si>
   <si>
@@ -813,176 +810,433 @@
     <t>Null</t>
   </si>
   <si>
-    <t>1224375</t>
-  </si>
-  <si>
-    <t>1223936</t>
-  </si>
-  <si>
-    <t>1227265</t>
-  </si>
-  <si>
-    <t>1224835</t>
-  </si>
-  <si>
-    <t>431224375</t>
-  </si>
-  <si>
-    <t>NGIN2533</t>
-  </si>
-  <si>
-    <t>ngindomain2533.com</t>
-  </si>
-  <si>
-    <t>nginocn2533</t>
-  </si>
-  <si>
-    <t>testreference2533</t>
-  </si>
-  <si>
-    <t>ngincontact2533</t>
-  </si>
-  <si>
-    <t>ngin2533@test.com</t>
-  </si>
-  <si>
-    <t>NGINOrder_2533</t>
-  </si>
-  <si>
-    <t>NGINRFI_2533</t>
-  </si>
-  <si>
-    <t>NGINService_2533</t>
-  </si>
-  <si>
-    <t>NGINUser_2533</t>
-  </si>
-  <si>
-    <t>User_2533</t>
-  </si>
-  <si>
-    <t>NGINUser_2533@gmail.com</t>
-  </si>
-  <si>
-    <t>NGINUseredit2533</t>
-  </si>
-  <si>
-    <t>Useredit2533</t>
-  </si>
-  <si>
-    <t>NGINUseredit_2533@gmail.com</t>
-  </si>
-  <si>
-    <t>NGINOrderedit_2533</t>
-  </si>
-  <si>
-    <t>NGINRFIedit_2533</t>
-  </si>
-  <si>
-    <t>nginreseller2533@gmail.com</t>
-  </si>
-  <si>
-    <t>nginreselleredit2533@gmail.com</t>
-  </si>
-  <si>
-    <t>Reseller2533</t>
-  </si>
-  <si>
-    <t>Reselleredit2533</t>
-  </si>
-  <si>
-    <t>AT-nginocn2533</t>
-  </si>
-  <si>
-    <t>NGIN2534</t>
-  </si>
-  <si>
-    <t>ngindomain2534.com</t>
-  </si>
-  <si>
-    <t>nginocn2534</t>
-  </si>
-  <si>
-    <t>testreference2534</t>
-  </si>
-  <si>
-    <t>ngincontact2534</t>
-  </si>
-  <si>
-    <t>ngin2534@test.com</t>
-  </si>
-  <si>
-    <t>NGINOrder_2534</t>
-  </si>
-  <si>
-    <t>NGINRFI_2534</t>
-  </si>
-  <si>
-    <t>NGINService_2534</t>
-  </si>
-  <si>
-    <t>NGINUser_2534</t>
-  </si>
-  <si>
-    <t>User_2534</t>
-  </si>
-  <si>
-    <t>NGINUser_2534@gmail.com</t>
-  </si>
-  <si>
-    <t>NGINUseredit2534</t>
-  </si>
-  <si>
-    <t>Useredit2534</t>
-  </si>
-  <si>
-    <t>NGINUseredit_2534@gmail.com</t>
-  </si>
-  <si>
-    <t>NGINOrderedit_2534</t>
-  </si>
-  <si>
-    <t>NGINRFIedit_2534</t>
-  </si>
-  <si>
-    <t>nginreseller2534@gmail.com</t>
-  </si>
-  <si>
-    <t>nginreselleredit2534@gmail.com</t>
-  </si>
-  <si>
-    <t>Reseller2534</t>
-  </si>
-  <si>
-    <t>Reselleredit2534</t>
-  </si>
-  <si>
-    <t>AT-nginocn2534</t>
-  </si>
-  <si>
-    <t>1224376</t>
-  </si>
-  <si>
-    <t>1223937</t>
-  </si>
-  <si>
-    <t>1227266</t>
-  </si>
-  <si>
-    <t>1224836</t>
-  </si>
-  <si>
-    <t>431224376</t>
-  </si>
-  <si>
-    <t>D:\APT_phase1_deliverable24082020\APTAutomationProject\src\NGINBulkNew.csv</t>
+    <t>url for the product</t>
+  </si>
+  <si>
+    <t>editOrderSelection</t>
+  </si>
+  <si>
+    <t>changeOrderSelection_newOrder</t>
+  </si>
+  <si>
+    <t>changeOrderSelection_existingOrder</t>
+  </si>
+  <si>
+    <t>ChangeOrder_existingOrderNumber</t>
+  </si>
+  <si>
+    <t>NGIN3314</t>
+  </si>
+  <si>
+    <t>ngindomain3314.com</t>
+  </si>
+  <si>
+    <t>nginocn3314</t>
+  </si>
+  <si>
+    <t>testreference3314</t>
+  </si>
+  <si>
+    <t>ngincontact3314</t>
+  </si>
+  <si>
+    <t>ngin3314@test.com</t>
+  </si>
+  <si>
+    <t>NGINOrder_3314</t>
+  </si>
+  <si>
+    <t>NGINRFI_3314</t>
+  </si>
+  <si>
+    <t>NGINService_3314</t>
+  </si>
+  <si>
+    <t>NGINUser_3314</t>
+  </si>
+  <si>
+    <t>User_3314</t>
+  </si>
+  <si>
+    <t>NGINUser_3314@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINUseredit3314</t>
+  </si>
+  <si>
+    <t>Useredit3314</t>
+  </si>
+  <si>
+    <t>NGINUseredit_3314@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINOrderedit_3314</t>
+  </si>
+  <si>
+    <t>NGINRFIedit_3314</t>
+  </si>
+  <si>
+    <t>nginreseller3314@gmail.com</t>
+  </si>
+  <si>
+    <t>nginreselleredit3314@gmail.com</t>
+  </si>
+  <si>
+    <t>Reseller3314</t>
+  </si>
+  <si>
+    <t>Reselleredit3314</t>
+  </si>
+  <si>
+    <t>AT-nginocn3314</t>
+  </si>
+  <si>
+    <t>NGIN3421</t>
+  </si>
+  <si>
+    <t>ngindomain3421.com</t>
+  </si>
+  <si>
+    <t>nginocn3421</t>
+  </si>
+  <si>
+    <t>testreference3421</t>
+  </si>
+  <si>
+    <t>ngincontact3421</t>
+  </si>
+  <si>
+    <t>ngin3421@test.com</t>
+  </si>
+  <si>
+    <t>NGINOrder_3421</t>
+  </si>
+  <si>
+    <t>NGINRFI_3421</t>
+  </si>
+  <si>
+    <t>NGINService_3421</t>
+  </si>
+  <si>
+    <t>NGINUser_3421</t>
+  </si>
+  <si>
+    <t>User_3421</t>
+  </si>
+  <si>
+    <t>NGINUser_3421@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINUseredit3421</t>
+  </si>
+  <si>
+    <t>Useredit3421</t>
+  </si>
+  <si>
+    <t>NGINUseredit_3421@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINOrderedit_3421</t>
+  </si>
+  <si>
+    <t>NGINRFIedit_3421</t>
+  </si>
+  <si>
+    <t>nginreseller3421@gmail.com</t>
+  </si>
+  <si>
+    <t>nginreselleredit3421@gmail.com</t>
+  </si>
+  <si>
+    <t>Reseller3421</t>
+  </si>
+  <si>
+    <t>Reselleredit3421</t>
+  </si>
+  <si>
+    <t>AT-nginocn3421</t>
+  </si>
+  <si>
+    <t>NGIN3512</t>
+  </si>
+  <si>
+    <t>ngindomain3512.com</t>
+  </si>
+  <si>
+    <t>nginocn3512</t>
+  </si>
+  <si>
+    <t>testreference3512</t>
+  </si>
+  <si>
+    <t>ngincontact3512</t>
+  </si>
+  <si>
+    <t>ngin3512@test.com</t>
+  </si>
+  <si>
+    <t>NGINOrder_3512</t>
+  </si>
+  <si>
+    <t>NGINRFI_3512</t>
+  </si>
+  <si>
+    <t>NGINService_3512</t>
+  </si>
+  <si>
+    <t>NGINUser_3512</t>
+  </si>
+  <si>
+    <t>User_3512</t>
+  </si>
+  <si>
+    <t>NGINUser_3512@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINUseredit3512</t>
+  </si>
+  <si>
+    <t>Useredit3512</t>
+  </si>
+  <si>
+    <t>NGINUseredit_3512@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINOrderedit_3512</t>
+  </si>
+  <si>
+    <t>NGINRFIedit_3512</t>
+  </si>
+  <si>
+    <t>nginreseller3512@gmail.com</t>
+  </si>
+  <si>
+    <t>nginreselleredit3512@gmail.com</t>
+  </si>
+  <si>
+    <t>Reseller3512</t>
+  </si>
+  <si>
+    <t>Reselleredit3512</t>
+  </si>
+  <si>
+    <t>AT-nginocn3512</t>
+  </si>
+  <si>
+    <t>NGIN3602</t>
+  </si>
+  <si>
+    <t>ngindomain3602.com</t>
+  </si>
+  <si>
+    <t>nginocn3602</t>
+  </si>
+  <si>
+    <t>testreference3602</t>
+  </si>
+  <si>
+    <t>ngincontact3602</t>
+  </si>
+  <si>
+    <t>ngin3602@test.com</t>
+  </si>
+  <si>
+    <t>NGINOrder_3602</t>
+  </si>
+  <si>
+    <t>NGINRFI_3602</t>
+  </si>
+  <si>
+    <t>NGINService_3602</t>
+  </si>
+  <si>
+    <t>NGINUser_3602</t>
+  </si>
+  <si>
+    <t>User_3602</t>
+  </si>
+  <si>
+    <t>NGINUser_3602@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINUseredit3602</t>
+  </si>
+  <si>
+    <t>Useredit3602</t>
+  </si>
+  <si>
+    <t>NGINUseredit_3602@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINOrderedit_3602</t>
+  </si>
+  <si>
+    <t>NGINRFIedit_3602</t>
+  </si>
+  <si>
+    <t>nginreseller3602@gmail.com</t>
+  </si>
+  <si>
+    <t>nginreselleredit3602@gmail.com</t>
+  </si>
+  <si>
+    <t>Reseller3602</t>
+  </si>
+  <si>
+    <t>Reselleredit3602</t>
+  </si>
+  <si>
+    <t>AT-nginocn3602</t>
+  </si>
+  <si>
+    <t>NGIN3704</t>
+  </si>
+  <si>
+    <t>ngindomain3704.com</t>
+  </si>
+  <si>
+    <t>nginocn3704</t>
+  </si>
+  <si>
+    <t>testreference3704</t>
+  </si>
+  <si>
+    <t>ngincontact3704</t>
+  </si>
+  <si>
+    <t>ngin3704@test.com</t>
+  </si>
+  <si>
+    <t>NGINOrder_3704</t>
+  </si>
+  <si>
+    <t>NGINRFI_3704</t>
+  </si>
+  <si>
+    <t>NGINService_3704</t>
+  </si>
+  <si>
+    <t>NGINUser_3704</t>
+  </si>
+  <si>
+    <t>User_3704</t>
+  </si>
+  <si>
+    <t>NGINUser_3704@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINUseredit3704</t>
+  </si>
+  <si>
+    <t>Useredit3704</t>
+  </si>
+  <si>
+    <t>NGINUseredit_3704@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINOrderedit_3704</t>
+  </si>
+  <si>
+    <t>NGINRFIedit_3704</t>
+  </si>
+  <si>
+    <t>nginreseller3704@gmail.com</t>
+  </si>
+  <si>
+    <t>nginreselleredit3704@gmail.com</t>
+  </si>
+  <si>
+    <t>Reseller3704</t>
+  </si>
+  <si>
+    <t>Reselleredit3704</t>
+  </si>
+  <si>
+    <t>AT-nginocn3704</t>
+  </si>
+  <si>
+    <t>1227321</t>
+  </si>
+  <si>
+    <t>1228124</t>
+  </si>
+  <si>
+    <t>1228415</t>
+  </si>
+  <si>
+    <t>1228532</t>
+  </si>
+  <si>
+    <t>1228641</t>
+  </si>
+  <si>
+    <t>1226721</t>
+  </si>
+  <si>
+    <t>1229425</t>
+  </si>
+  <si>
+    <t>1226842</t>
+  </si>
+  <si>
+    <t>1229536</t>
+  </si>
+  <si>
+    <t>1226951</t>
+  </si>
+  <si>
+    <t>1229672</t>
+  </si>
+  <si>
+    <t>1227253</t>
+  </si>
+  <si>
+    <t>1229713</t>
+  </si>
+  <si>
+    <t>1227845</t>
+  </si>
+  <si>
+    <t>1229862</t>
+  </si>
+  <si>
+    <t>1221752</t>
+  </si>
+  <si>
+    <t>1221442</t>
+  </si>
+  <si>
+    <t>1221902</t>
+  </si>
+  <si>
+    <t>1221056</t>
+  </si>
+  <si>
+    <t>1221134</t>
+  </si>
+  <si>
+    <t>431227321</t>
+  </si>
+  <si>
+    <t>431228124</t>
+  </si>
+  <si>
+    <t>431228415</t>
+  </si>
+  <si>
+    <t>431228532</t>
+  </si>
+  <si>
+    <t>431228641</t>
+  </si>
+  <si>
+    <t>D:\APT_Phase1_Automation_Project_Deliverables\APTAutomationProject\src\NGINBulkNew.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1056,46 +1310,46 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1112,10 +1366,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1150,7 +1404,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1185,7 +1439,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1279,21 +1533,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1310,7 +1564,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1362,214 +1616,215 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GF4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:GI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="23.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="21.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="17.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.0" collapsed="true"/>
-    <col min="12" max="12" style="2" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="21.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="15.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="17.5703125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="26.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="28.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="17.42578125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="22.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="19.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="19.7109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="12.28515625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.7109375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="18.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="22.42578125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="12.5703125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.28515625" collapsed="true"/>
-    <col min="32" max="33" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="16.140625" collapsed="true"/>
-    <col min="36" max="38" style="2" width="9.140625" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
-    <col min="40" max="41" style="2" width="9.140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="2" width="26.85546875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="14.85546875" collapsed="true"/>
-    <col min="44" max="45" style="2" width="9.140625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="19.0" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="11.0" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="22.42578125" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="19.28515625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="23.42578125" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="26.85546875" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="26.7109375" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" style="2" width="30.140625" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" style="2" width="16.0" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
-    <col min="58" max="59" style="2" width="9.140625" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" style="2" width="53.85546875" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" style="2" width="26.85546875" collapsed="true"/>
-    <col min="62" max="63" bestFit="true" customWidth="true" style="2" width="65.28515625" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" style="2" width="16.0" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" style="2" width="12.85546875" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" style="2" width="10.140625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" style="2" width="28.140625" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" style="2" width="18.42578125" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" style="2" width="25.140625" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" style="2" width="12.7109375" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" style="2" width="22.42578125" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" style="2" width="15.28515625" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" style="2" width="16.42578125" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" style="2" width="15.140625" collapsed="true"/>
-    <col min="76" max="76" bestFit="true" customWidth="true" style="2" width="15.85546875" collapsed="true"/>
-    <col min="77" max="77" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
-    <col min="78" max="78" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
-    <col min="79" max="79" bestFit="true" customWidth="true" style="2" width="16.7109375" collapsed="true"/>
-    <col min="80" max="80" bestFit="true" customWidth="true" style="2" width="22.0" collapsed="true"/>
-    <col min="81" max="82" bestFit="true" customWidth="true" style="2" width="39.0" collapsed="true"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" style="2" width="32.85546875" collapsed="true"/>
-    <col min="84" max="85" bestFit="true" customWidth="true" style="2" width="38.7109375" collapsed="true"/>
-    <col min="86" max="86" bestFit="true" customWidth="true" style="2" width="79.140625" collapsed="true"/>
-    <col min="87" max="87" bestFit="true" customWidth="true" style="2" width="23.42578125" collapsed="true"/>
-    <col min="88" max="88" bestFit="true" customWidth="true" style="2" width="30.7109375" collapsed="true"/>
-    <col min="89" max="89" bestFit="true" customWidth="true" style="2" width="25.7109375" collapsed="true"/>
-    <col min="90" max="90" bestFit="true" customWidth="true" style="2" width="39.5703125" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" style="2" width="18.42578125" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" style="2" width="25.85546875" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" style="2" width="13.5703125" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" style="2" width="23.0" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" style="2" width="20.140625" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" style="2" width="24.28515625" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" style="2" width="30.85546875" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" style="2" width="25.85546875" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" style="2" width="22.7109375" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" style="2" width="15.7109375" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" style="2" width="18.42578125" collapsed="true"/>
-    <col min="102" max="103" bestFit="true" customWidth="true" style="2" width="25.85546875" collapsed="true"/>
-    <col min="104" max="104" bestFit="true" customWidth="true" style="2" width="19.5703125" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
-    <col min="106" max="106" bestFit="true" customWidth="true" style="2" width="25.7109375" collapsed="true"/>
-    <col min="107" max="107" bestFit="true" customWidth="true" style="2" width="19.140625" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="109" max="110" bestFit="true" customWidth="true" style="2" width="19.7109375" collapsed="true"/>
-    <col min="111" max="111" bestFit="true" customWidth="true" style="2" width="17.5703125" collapsed="true"/>
-    <col min="112" max="112" bestFit="true" customWidth="true" style="2" width="24.7109375" collapsed="true"/>
-    <col min="113" max="113" bestFit="true" customWidth="true" style="2" width="38.7109375" collapsed="true"/>
-    <col min="114" max="114" bestFit="true" customWidth="true" style="2" width="36.85546875" collapsed="true"/>
-    <col min="115" max="115" bestFit="true" customWidth="true" style="2" width="20.42578125" collapsed="true"/>
-    <col min="116" max="116" bestFit="true" customWidth="true" style="2" width="30.7109375" collapsed="true"/>
-    <col min="117" max="117" customWidth="true" style="2" width="26.140625" collapsed="true"/>
-    <col min="118" max="118" bestFit="true" customWidth="true" style="2" width="39.5703125" collapsed="true"/>
-    <col min="119" max="120" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
-    <col min="121" max="122" bestFit="true" customWidth="true" style="2" width="28.5703125" collapsed="true"/>
-    <col min="123" max="123" bestFit="true" customWidth="true" style="2" width="41.140625" collapsed="true"/>
-    <col min="124" max="124" bestFit="true" customWidth="true" style="2" width="35.5703125" collapsed="true"/>
-    <col min="125" max="125" bestFit="true" customWidth="true" style="2" width="25.7109375" collapsed="true"/>
-    <col min="126" max="126" bestFit="true" customWidth="true" style="2" width="18.0" collapsed="true"/>
-    <col min="127" max="127" bestFit="true" customWidth="true" style="2" width="25.7109375" collapsed="true"/>
-    <col min="128" max="128" bestFit="true" customWidth="true" style="2" width="34.28515625" collapsed="true"/>
-    <col min="129" max="129" bestFit="true" customWidth="true" style="2" width="37.5703125" collapsed="true"/>
-    <col min="130" max="130" bestFit="true" customWidth="true" style="2" width="26.28515625" collapsed="true"/>
-    <col min="131" max="131" bestFit="true" customWidth="true" style="2" width="34.140625" collapsed="true"/>
-    <col min="132" max="132" bestFit="true" customWidth="true" style="2" width="24.7109375" collapsed="true"/>
-    <col min="133" max="133" bestFit="true" customWidth="true" style="2" width="24.140625" collapsed="true"/>
-    <col min="134" max="134" bestFit="true" customWidth="true" style="2" width="21.7109375" collapsed="true"/>
-    <col min="135" max="135" bestFit="true" customWidth="true" style="2" width="41.140625" collapsed="true"/>
-    <col min="136" max="136" bestFit="true" customWidth="true" style="2" width="40.140625" collapsed="true"/>
-    <col min="137" max="137" bestFit="true" customWidth="true" style="2" width="20.28515625" collapsed="true"/>
-    <col min="138" max="138" bestFit="true" customWidth="true" style="2" width="22.5703125" collapsed="true"/>
-    <col min="139" max="139" bestFit="true" customWidth="true" style="2" width="28.5703125" collapsed="true"/>
-    <col min="140" max="140" bestFit="true" customWidth="true" style="2" width="38.85546875" collapsed="true"/>
-    <col min="141" max="141" bestFit="true" customWidth="true" style="2" width="42.28515625" collapsed="true"/>
-    <col min="142" max="142" bestFit="true" customWidth="true" style="2" width="32.28515625" collapsed="true"/>
-    <col min="143" max="143" bestFit="true" customWidth="true" style="2" width="38.7109375" collapsed="true"/>
-    <col min="144" max="146" bestFit="true" customWidth="true" style="2" width="41.140625" collapsed="true"/>
-    <col min="147" max="147" bestFit="true" customWidth="true" style="2" width="37.5703125" collapsed="true"/>
-    <col min="148" max="148" bestFit="true" customWidth="true" style="2" width="27.7109375" collapsed="true"/>
-    <col min="149" max="149" bestFit="true" customWidth="true" style="2" width="34.140625" collapsed="true"/>
-    <col min="150" max="150" bestFit="true" customWidth="true" style="2" width="29.28515625" collapsed="true"/>
-    <col min="151" max="151" bestFit="true" customWidth="true" style="2" width="13.85546875" collapsed="true"/>
-    <col min="152" max="152" bestFit="true" customWidth="true" style="2" width="15.42578125" collapsed="true"/>
-    <col min="153" max="154" style="2" width="9.140625" collapsed="true"/>
-    <col min="155" max="155" bestFit="true" customWidth="true" style="2" width="16.85546875" collapsed="true"/>
-    <col min="156" max="157" bestFit="true" customWidth="true" style="2" width="22.5703125" collapsed="true"/>
-    <col min="158" max="159" style="2" width="9.140625" collapsed="true"/>
-    <col min="160" max="160" bestFit="true" customWidth="true" style="2" width="38.7109375" collapsed="true"/>
-    <col min="161" max="161" bestFit="true" customWidth="true" style="2" width="27.7109375" collapsed="true"/>
-    <col min="162" max="162" bestFit="true" customWidth="true" style="2" width="24.0" collapsed="true"/>
-    <col min="163" max="163" bestFit="true" customWidth="true" style="2" width="18.140625" collapsed="true"/>
-    <col min="164" max="164" bestFit="true" customWidth="true" style="2" width="26.85546875" collapsed="true"/>
-    <col min="165" max="165" bestFit="true" customWidth="true" style="2" width="48.42578125" collapsed="true"/>
-    <col min="166" max="166" bestFit="true" customWidth="true" style="2" width="50.0" collapsed="true"/>
-    <col min="167" max="167" bestFit="true" customWidth="true" style="2" width="48.42578125" collapsed="true"/>
-    <col min="168" max="168" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
-    <col min="169" max="169" bestFit="true" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
-    <col min="170" max="170" bestFit="true" customWidth="true" style="2" width="27.7109375" collapsed="true"/>
-    <col min="171" max="171" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
-    <col min="172" max="172" bestFit="true" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
-    <col min="173" max="173" bestFit="true" customWidth="true" style="2" width="22.0" collapsed="true"/>
-    <col min="174" max="174" bestFit="true" customWidth="true" style="2" width="19.0" collapsed="true"/>
-    <col min="175" max="175" bestFit="true" customWidth="true" style="2" width="23.42578125" collapsed="true"/>
-    <col min="176" max="176" bestFit="true" customWidth="true" style="2" width="44.7109375" collapsed="true"/>
-    <col min="177" max="177" bestFit="true" customWidth="true" style="2" width="42.85546875" collapsed="true"/>
-    <col min="178" max="178" bestFit="true" customWidth="true" style="2" width="46.42578125" collapsed="true"/>
-    <col min="179" max="179" bestFit="true" customWidth="true" style="2" width="48.7109375" collapsed="true"/>
-    <col min="180" max="180" bestFit="true" customWidth="true" style="2" width="49.0" collapsed="true"/>
-    <col min="181" max="181" bestFit="true" customWidth="true" style="2" width="47.140625" collapsed="true"/>
-    <col min="182" max="183" bestFit="true" customWidth="true" style="2" width="22.42578125" collapsed="true"/>
-    <col min="184" max="184" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
-    <col min="185" max="187" bestFit="true" customWidth="true" style="2" width="22.7109375" collapsed="true"/>
-    <col min="188" max="188" bestFit="true" customWidth="true" style="2" width="22.42578125" collapsed="true"/>
-    <col min="189" max="189" style="2" width="9.140625" collapsed="true"/>
-    <col min="190" max="191" bestFit="true" customWidth="true" style="2" width="22.7109375" collapsed="true"/>
-    <col min="192" max="220" style="2" width="9.140625" collapsed="true"/>
-    <col min="221" max="221" bestFit="true" customWidth="true" style="2" width="20.5703125" collapsed="true"/>
-    <col min="222" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="17.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="2" collapsed="1"/>
+    <col min="13" max="13" width="21" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="26.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="28.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="22.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="19.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="12.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="23.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="13.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="33" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="16.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="38" width="9.140625" style="2" collapsed="1"/>
+    <col min="39" max="39" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="41" width="9.140625" style="2" collapsed="1"/>
+    <col min="42" max="42" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="14.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="45" width="9.140625" style="2" collapsed="1"/>
+    <col min="46" max="46" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="11" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="19.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="26.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="30.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="16" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="59" width="9.140625" style="2" collapsed="1"/>
+    <col min="60" max="60" width="53.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="63" width="65.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="16" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="12.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="10.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="28.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="25.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="12.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="15.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="15.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="79" width="26.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" width="30.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="81" max="82" width="39" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="32.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="85" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="79.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="30.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="89" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="39.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="13.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="23" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="20.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="24.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="30.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="15.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="18.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="103" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="19.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="21.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="106" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="107" max="107" width="19.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="109" max="110" width="19.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="111" max="111" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="112" max="112" width="24.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="113" max="113" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="114" max="114" width="36.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="115" max="115" width="20.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="116" max="116" width="30.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="117" max="117" width="26.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="118" max="118" width="39.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="119" max="120" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="121" max="122" width="28.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="123" max="123" width="41.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="124" max="124" width="35.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="125" max="125" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="126" max="126" width="18" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="127" max="127" width="25.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="128" max="128" width="34.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="129" max="129" width="37.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="130" max="130" width="26.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="131" max="131" width="34.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="132" max="132" width="24.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="133" max="133" width="24.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="134" max="134" width="21.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="135" max="135" width="41.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="136" max="136" width="40.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="137" max="137" width="20.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="138" max="138" width="22.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="139" max="139" width="28.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="140" max="140" width="38.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="141" max="141" width="42.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="142" max="142" width="32.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="143" max="143" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="144" max="146" width="41.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="147" max="147" width="37.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="148" max="148" width="27.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="149" max="149" width="34.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="150" max="150" width="29.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="151" max="151" width="13.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="152" max="152" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="153" max="154" width="9.140625" style="2" collapsed="1"/>
+    <col min="155" max="155" width="16.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="156" max="157" width="22.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="158" max="158" width="17.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="159" max="159" width="9.140625" style="2" collapsed="1"/>
+    <col min="160" max="160" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="161" max="161" width="27.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="162" max="162" width="24" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="163" max="163" width="18.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="164" max="164" width="26.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="165" max="165" width="48.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="166" max="166" width="50" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="167" max="167" width="48.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="168" max="168" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="169" max="169" width="26.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="170" max="170" width="27.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="171" max="171" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="172" max="172" width="21.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="173" max="173" width="22" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="174" max="174" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="175" max="175" width="23.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="176" max="176" width="44.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="177" max="177" width="42.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="178" max="178" width="46.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="179" max="179" width="48.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="180" max="180" width="49" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="181" max="181" width="47.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="182" max="183" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="184" max="184" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="185" max="187" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="188" max="188" width="22.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="189" max="189" width="9.140625" style="2" collapsed="1"/>
+    <col min="190" max="191" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="192" max="220" width="9.140625" style="2" collapsed="1"/>
+    <col min="221" max="221" width="20.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="222" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:187">
+    <row r="1" spans="1:191">
       <c r="A1" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
@@ -1782,345 +2037,357 @@
         <v>239</v>
       </c>
       <c r="BY1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CC1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CG1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="CG1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CL1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="EV1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="EW1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="EX1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FK1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FL1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="FI1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="FM1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="FN1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="FK1" s="1" t="s">
+      <c r="FO1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="FL1" s="1" t="s">
+      <c r="FP1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="FM1" s="1" t="s">
+      <c r="FQ1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="FN1" s="1" t="s">
+      <c r="FR1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="FO1" s="1" t="s">
+      <c r="FS1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="FP1" s="1" t="s">
+      <c r="FT1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="FQ1" s="1" t="s">
+      <c r="FU1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="FR1" s="1" t="s">
+      <c r="FV1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="FS1" s="1" t="s">
+      <c r="FW1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="FT1" s="1" t="s">
+      <c r="FX1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="FU1" s="1" t="s">
+      <c r="FY1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="FV1" s="1" t="s">
+      <c r="FZ1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="FW1" s="1" t="s">
+      <c r="GA1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="FX1" s="1" t="s">
+      <c r="GB1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="FY1" s="1" t="s">
+      <c r="GC1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="FZ1" s="1" t="s">
+      <c r="GD1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="GA1" s="1" t="s">
+      <c r="GE1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="GB1" s="1" t="s">
+      <c r="GF1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="GC1" s="1" t="s">
+      <c r="GG1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="GD1" s="1" t="s">
+      <c r="GH1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="GE1" s="1" t="s">
+      <c r="GI1" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:187">
+    <row r="2" spans="1:191">
       <c r="A2" s="14" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>134</v>
@@ -2129,31 +2396,31 @@
         <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>201</v>
@@ -2180,22 +2447,22 @@
         <v>134</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>25</v>
@@ -2228,10 +2495,10 @@
         <v>41</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>26</v>
@@ -2240,19 +2507,19 @@
         <v>46</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>203</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>168</v>
@@ -2261,7 +2528,7 @@
         <v>59</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>204</v>
@@ -2345,290 +2612,290 @@
         <v>143</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>298</v>
+        <v>134</v>
       </c>
       <c r="CC2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="CG2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="CD2" s="6" t="s">
+      <c r="CH2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="CE2" s="7" t="s">
+      <c r="CI2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="CF2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="CH2" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="CI2" s="5" t="s">
-        <v>308</v>
-      </c>
       <c r="CJ2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="CM2" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="CN2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CK2" s="2" t="s">
+      <c r="CO2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CL2" s="2" t="s">
+      <c r="CP2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CM2" s="2" t="s">
+      <c r="CQ2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="CN2" s="2" t="s">
+      <c r="CR2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="CO2" s="2" t="s">
+      <c r="CS2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="CP2" s="2" t="s">
+      <c r="CT2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="CQ2" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="CR2" s="2" t="s">
+      <c r="CU2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="CV2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CS2" s="2" t="s">
+      <c r="CW2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CT2" s="2" t="s">
+      <c r="CX2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CU2" s="2" t="s">
+      <c r="CY2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="CV2" s="2" t="s">
+      <c r="CZ2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="CW2" s="2" t="s">
+      <c r="DA2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="CX2" s="2" t="s">
+      <c r="DB2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="CY2" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="CZ2" s="2" t="s">
+      <c r="DC2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="DD2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="DA2" s="2" t="s">
+      <c r="DE2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="DB2" s="2" t="s">
+      <c r="DF2" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="DC2" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="DD2" s="8" t="s">
+      <c r="DG2" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DH2" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="DE2" s="10" t="s">
+      <c r="DI2" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="DF2" t="s">
-        <v>143</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>66</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>66</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>134</v>
-      </c>
       <c r="DJ2" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="DK2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>134</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DO2" t="s">
         <v>130</v>
       </c>
-      <c r="DL2" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>66</v>
-      </c>
-      <c r="DN2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="DO2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="DP2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="DQ2" s="2" t="s">
-        <v>313</v>
+      <c r="DP2" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>66</v>
       </c>
       <c r="DR2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DS2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DT2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DU2" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DV2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="DW2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="DY2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="DZ2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="EA2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EB2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EC2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="ED2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="EE2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="EF2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="EG2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EH2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>134</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EM2" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EO2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EP2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EQ2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="ER2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="ES2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EW2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="EX2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="EY2" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="DS2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="DT2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="DU2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="DV2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="DW2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DX2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DY2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="DZ2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="EA2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="EB2" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="EC2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="ED2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>66</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>66</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>134</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>66</v>
-      </c>
-      <c r="EI2" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>66</v>
-      </c>
-      <c r="EK2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="EL2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="EM2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="EN2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EP2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EQ2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>143</v>
-      </c>
-      <c r="ES2" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="ET2" s="2" t="s">
+      <c r="EZ2" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="FA2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="FB2" t="s">
         <v>255</v>
       </c>
-      <c r="EU2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="EV2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="EW2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>256</v>
-      </c>
-      <c r="EY2" t="s">
+      <c r="FC2" t="s">
         <v>138</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FD2" t="s">
         <v>205</v>
       </c>
-      <c r="FA2" t="s">
-        <v>256</v>
-      </c>
-      <c r="FB2" t="s">
+      <c r="FE2" t="s">
+        <v>255</v>
+      </c>
+      <c r="FF2" t="s">
         <v>138</v>
       </c>
-      <c r="FC2" s="2" t="s">
+      <c r="FG2" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="FD2" s="2" t="s">
+      <c r="FH2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="FE2" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="FF2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>312</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>317</v>
-      </c>
-      <c r="FI2" s="9" t="s">
-        <v>316</v>
+      <c r="FI2" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="FJ2" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>289</v>
+      </c>
+      <c r="FL2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="FM2" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="FN2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="FK2" s="2" t="s">
+      <c r="FO2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="FL2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FM2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FN2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FO2" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="FP2" s="2" t="s">
         <v>143</v>
       </c>
@@ -2639,32 +2906,32 @@
         <v>143</v>
       </c>
       <c r="FS2" s="2" t="s">
-        <v>262</v>
+        <v>143</v>
       </c>
       <c r="FT2" s="2" t="s">
         <v>143</v>
       </c>
       <c r="FU2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FV2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FW2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="FX2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FY2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="FV2" s="2" t="s">
+      <c r="FZ2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="FW2" s="2" t="s">
+      <c r="GA2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="FX2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FY2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FZ2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="GA2" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="GB2" s="2" t="s">
         <v>143</v>
       </c>
@@ -2672,18 +2939,30 @@
         <v>143</v>
       </c>
       <c r="GD2" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="GE2" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="GF2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GG2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GH2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GI2" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="3" spans="1:187">
+    <row r="3" spans="1:191">
       <c r="A3" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>134</v>
@@ -2692,31 +2971,31 @@
         <v>66</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>201</v>
@@ -2743,22 +3022,22 @@
         <v>134</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>25</v>
@@ -2791,10 +3070,10 @@
         <v>41</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="AN3" s="2" t="s">
         <v>26</v>
@@ -2803,19 +3082,19 @@
         <v>46</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="AQ3" s="2" t="s">
         <v>203</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="AU3" s="2" t="s">
         <v>168</v>
@@ -2824,7 +3103,7 @@
         <v>59</v>
       </c>
       <c r="AW3" s="5" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>204</v>
@@ -2908,378 +3187,390 @@
         <v>143</v>
       </c>
       <c r="BY3" s="2" t="s">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="CA3" s="2" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="CB3" s="2" t="s">
-        <v>276</v>
+        <v>134</v>
       </c>
       <c r="CC3" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="CE3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CF3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="CG3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="CD3" s="6" t="s">
+      <c r="CH3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="CE3" s="7" t="s">
+      <c r="CI3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="CF3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="CG3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="CH3" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="CI3" s="5" t="s">
-        <v>286</v>
-      </c>
       <c r="CJ3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CK3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL3" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="CM3" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="CN3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CK3" s="2" t="s">
+      <c r="CO3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CL3" s="2" t="s">
+      <c r="CP3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CM3" s="2" t="s">
+      <c r="CQ3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="CN3" s="2" t="s">
+      <c r="CR3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="CO3" s="2" t="s">
+      <c r="CS3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="CP3" s="2" t="s">
+      <c r="CT3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="CQ3" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="CR3" s="2" t="s">
+      <c r="CU3" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="CV3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CS3" s="2" t="s">
+      <c r="CW3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CT3" s="2" t="s">
+      <c r="CX3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CU3" s="2" t="s">
+      <c r="CY3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="CV3" s="2" t="s">
+      <c r="CZ3" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="CW3" s="2" t="s">
+      <c r="DA3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="CX3" s="2" t="s">
+      <c r="DB3" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="CY3" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="CZ3" s="2" t="s">
+      <c r="DC3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="DD3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="DA3" s="2" t="s">
+      <c r="DE3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="DB3" s="2" t="s">
+      <c r="DF3" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="DC3" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="DD3" s="8" t="s">
+      <c r="DG3" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="DH3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="DE3" s="10" t="s">
+      <c r="DI3" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="DF3" t="s">
-        <v>143</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>66</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>66</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>134</v>
-      </c>
       <c r="DJ3" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="DK3" t="s">
+        <v>66</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>66</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>134</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>66</v>
+      </c>
+      <c r="DO3" t="s">
         <v>130</v>
       </c>
-      <c r="DL3" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>66</v>
-      </c>
-      <c r="DN3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="DO3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="DP3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="DQ3" s="2" t="s">
-        <v>264</v>
+      <c r="DP3" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>66</v>
       </c>
       <c r="DR3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DS3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DT3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DU3" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="DV3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="DW3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="DY3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="DZ3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="EA3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EB3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EC3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="ED3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="EE3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="EF3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="EG3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EH3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>66</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>66</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>134</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>66</v>
+      </c>
+      <c r="EM3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>66</v>
+      </c>
+      <c r="EO3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EP3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EQ3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="ER3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="ES3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>143</v>
+      </c>
+      <c r="EW3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="EX3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="EY3" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="DS3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="DT3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="DU3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="DV3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="DW3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DX3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="DY3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="DZ3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="EA3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="EB3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="EC3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="ED3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>66</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>66</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>134</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>66</v>
-      </c>
-      <c r="EI3" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>66</v>
-      </c>
-      <c r="EK3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="EL3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="EM3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="EN3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EP3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="EQ3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>143</v>
-      </c>
-      <c r="ES3" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="ET3" s="2" t="s">
+      <c r="EZ3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="FA3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="FB3" t="s">
         <v>255</v>
       </c>
-      <c r="EU3" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="EV3" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="EW3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="EX3" t="s">
-        <v>256</v>
-      </c>
-      <c r="EY3" t="s">
+      <c r="FC3" t="s">
         <v>138</v>
       </c>
-      <c r="EZ3" t="s">
+      <c r="FD3" t="s">
         <v>205</v>
       </c>
-      <c r="FA3" t="s">
-        <v>256</v>
-      </c>
-      <c r="FB3" t="s">
+      <c r="FE3" t="s">
+        <v>255</v>
+      </c>
+      <c r="FF3" t="s">
         <v>138</v>
       </c>
-      <c r="FC3" s="2" t="s">
+      <c r="FG3" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="FD3" s="2" t="s">
+      <c r="FH3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="FE3" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="FF3" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="FG3" t="s">
+      <c r="FI3" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="FJ3" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>311</v>
+      </c>
+      <c r="FL3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="FM3" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="FN3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="FO3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="FP3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FQ3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FR3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FS3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FT3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FU3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FV3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FW3" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="FX3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FY3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="FZ3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="GA3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="GB3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GC3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GD3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="GE3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GF3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GG3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GH3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GI3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:191">
+      <c r="A4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="FH3" t="s">
-        <v>317</v>
-      </c>
-      <c r="FI3" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="FJ3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="FK3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="FL3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FM3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FN3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FO3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FP3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FQ3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FR3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FS3" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="FT3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FU3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="FV3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="FW3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="FX3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FY3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FZ3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="GA3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="GB3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="GC3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="GD3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="GE3" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:187">
-      <c r="A4" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>201</v>
@@ -3306,22 +3597,22 @@
         <v>134</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>25</v>
@@ -3354,10 +3645,10 @@
         <v>41</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="AN4" s="2" t="s">
         <v>26</v>
@@ -3366,19 +3657,19 @@
         <v>46</v>
       </c>
       <c r="AP4" s="5" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="AQ4" s="2" t="s">
         <v>203</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="AU4" s="2" t="s">
         <v>168</v>
@@ -3387,7 +3678,7 @@
         <v>59</v>
       </c>
       <c r="AW4" s="5" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>204</v>
@@ -3471,358 +3762,1533 @@
         <v>143</v>
       </c>
       <c r="BY4" s="2" t="s">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="BZ4" s="2" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="CA4" s="2" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="CB4" s="2" t="s">
-        <v>276</v>
+        <v>134</v>
       </c>
       <c r="CC4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="CD4" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="CE4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CF4" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="CG4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="CD4" s="6" t="s">
+      <c r="CH4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="CE4" s="7" t="s">
+      <c r="CI4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="CF4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="CG4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="CH4" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="CI4" s="5" t="s">
-        <v>286</v>
-      </c>
       <c r="CJ4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CK4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL4" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="CM4" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="CN4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CK4" s="2" t="s">
+      <c r="CO4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CL4" s="2" t="s">
+      <c r="CP4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CM4" s="2" t="s">
+      <c r="CQ4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="CN4" s="2" t="s">
+      <c r="CR4" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="CO4" s="2" t="s">
+      <c r="CS4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="CP4" s="2" t="s">
+      <c r="CT4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="CQ4" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="CR4" s="2" t="s">
+      <c r="CU4" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="CV4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CS4" s="2" t="s">
+      <c r="CW4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CT4" s="2" t="s">
+      <c r="CX4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CU4" s="2" t="s">
+      <c r="CY4" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="CV4" s="2" t="s">
+      <c r="CZ4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="CW4" s="2" t="s">
+      <c r="DA4" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="CX4" s="2" t="s">
+      <c r="DB4" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="CY4" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="CZ4" s="2" t="s">
+      <c r="DC4" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="DD4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="DA4" s="2" t="s">
+      <c r="DE4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="DB4" s="2" t="s">
+      <c r="DF4" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="DC4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="DD4" s="8" t="s">
+      <c r="DG4" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="DH4" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="DE4" s="10" t="s">
+      <c r="DI4" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="DF4" t="s">
-        <v>143</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>66</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>66</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>134</v>
-      </c>
       <c r="DJ4" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="DK4" t="s">
+        <v>66</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>66</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>134</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>66</v>
+      </c>
+      <c r="DO4" t="s">
         <v>130</v>
       </c>
-      <c r="DL4" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>66</v>
-      </c>
-      <c r="DN4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="DO4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="DP4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="DQ4" s="2" t="s">
-        <v>264</v>
+      <c r="DP4" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>66</v>
       </c>
       <c r="DR4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DS4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DT4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DU4" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="DV4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="DW4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="DY4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="DZ4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="EA4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EB4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EC4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="ED4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="EE4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="EF4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="EG4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EH4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>66</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>66</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>134</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>66</v>
+      </c>
+      <c r="EM4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>66</v>
+      </c>
+      <c r="EO4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EP4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EQ4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="ER4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="ES4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>143</v>
+      </c>
+      <c r="EW4" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="EX4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="EY4" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="DS4" s="2" t="s">
+      <c r="EZ4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="FA4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>255</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>138</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>205</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>255</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>138</v>
+      </c>
+      <c r="FG4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="FH4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="FI4" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="FJ4" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>333</v>
+      </c>
+      <c r="FL4" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="FM4" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="FN4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="FO4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="FP4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FQ4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FR4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FS4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FT4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FU4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FV4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FW4" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="FX4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FY4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="FZ4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="GA4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="GB4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GC4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GD4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="GE4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GF4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GG4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GH4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GI4" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:191">
+      <c r="A5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP5" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY5" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ5" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="BA5" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BE5" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="BH5" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="BI5" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="BJ5" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="BL5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="BM5" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="BN5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BP5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BR5" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="BS5" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="BT5" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BV5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BW5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BY5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ5" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="CA5" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="CB5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CC5" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="CD5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="CE5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CF5" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="CG5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CH5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="CI5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="CJ5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CK5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL5" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="CM5" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="CN5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CO5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CP5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CQ5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="CR5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CS5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CT5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="CU5" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="CV5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CW5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CX5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CY5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CZ5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DA5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="DB5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="DC5" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="DD5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="DE5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="DG5" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="DH5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="DI5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>66</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>66</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>134</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>66</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>130</v>
+      </c>
+      <c r="DP5" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>66</v>
+      </c>
+      <c r="DR5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DS5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DT5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DU5" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="DV5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="DW5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="DT4" s="2" t="s">
+      <c r="DX5" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="DU4" s="2" t="s">
+      <c r="DY5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="DV4" s="2" t="s">
+      <c r="DZ5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="DW4" s="2" t="s">
+      <c r="EA5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="DX4" s="2" t="s">
+      <c r="EB5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="DY4" s="2" t="s">
+      <c r="EC5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="DZ4" s="2" t="s">
+      <c r="ED5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="EA4" s="2" t="s">
+      <c r="EE5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="EB4" s="2" t="s">
+      <c r="EF5" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="EC4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="ED4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>66</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>66</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>134</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>66</v>
-      </c>
-      <c r="EI4" s="9" t="s">
+      <c r="EG5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EH5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>66</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>66</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>134</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>66</v>
+      </c>
+      <c r="EM5" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="EJ4" t="s">
-        <v>66</v>
-      </c>
-      <c r="EK4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="EL4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="EM4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="EN4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO4" s="2" t="s">
+      <c r="EN5" t="s">
+        <v>66</v>
+      </c>
+      <c r="EO5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EP5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EQ5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="ER5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="ES5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="EP4" s="2" t="s">
+      <c r="ET5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="EQ4" s="2" t="s">
+      <c r="EU5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="ER4" t="s">
-        <v>143</v>
-      </c>
-      <c r="ES4" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="ET4" s="2" t="s">
+      <c r="EV5" t="s">
+        <v>143</v>
+      </c>
+      <c r="EW5" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="EX5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="EY5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="EZ5" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="FA5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="FB5" t="s">
         <v>255</v>
       </c>
-      <c r="EU4" s="2" t="s">
+      <c r="FC5" t="s">
+        <v>138</v>
+      </c>
+      <c r="FD5" t="s">
+        <v>205</v>
+      </c>
+      <c r="FE5" t="s">
+        <v>255</v>
+      </c>
+      <c r="FF5" t="s">
+        <v>138</v>
+      </c>
+      <c r="FG5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="FH5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="FI5" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="FJ5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="FK5" t="s">
+        <v>355</v>
+      </c>
+      <c r="FL5" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="FM5" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="FN5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="FO5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="FP5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FQ5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FR5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FS5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FT5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FU5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FV5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FW5" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="FX5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FY5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="FZ5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="GA5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="GB5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GC5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GD5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="GE5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GF5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GG5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GH5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GI5" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:191">
+      <c r="A6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW6" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY6" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ6" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="BA6" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BE6" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="BH6" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="BI6" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="BJ6" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="BL6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="BM6" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="BN6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BP6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ6" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BR6" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="BS6" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="BT6" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BV6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BW6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BY6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ6" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="CA6" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="CB6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CC6" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="CD6" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="CE6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CF6" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="CG6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="CH6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="CI6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="CJ6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="CK6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL6" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="CM6" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CN6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CO6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CP6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CQ6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="CR6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CS6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CT6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="CU6" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="CV6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CW6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CX6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CY6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CZ6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DA6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="DB6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="DC6" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="DD6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="DE6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="DF6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="DG6" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="DH6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="DI6" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>66</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>66</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>134</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>66</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>130</v>
+      </c>
+      <c r="DP6" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>66</v>
+      </c>
+      <c r="DR6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DS6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DT6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="DU6" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="DV6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="DW6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX6" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="DY6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="DZ6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="EA6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EB6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EC6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="ED6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="EE6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="EF6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="EG6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EH6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>66</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>66</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>134</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>66</v>
+      </c>
+      <c r="EM6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="EN6" t="s">
+        <v>66</v>
+      </c>
+      <c r="EO6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EP6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="EQ6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="ER6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="ES6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="ET6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="EV6" t="s">
+        <v>143</v>
+      </c>
+      <c r="EW6" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="EX6" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="EY6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="EZ6" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="EV4" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="EW4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>256</v>
-      </c>
-      <c r="EY4" t="s">
+      <c r="FA6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="FB6" t="s">
+        <v>255</v>
+      </c>
+      <c r="FC6" t="s">
         <v>138</v>
       </c>
-      <c r="EZ4" t="s">
+      <c r="FD6" t="s">
         <v>205</v>
       </c>
-      <c r="FA4" t="s">
-        <v>256</v>
-      </c>
-      <c r="FB4" t="s">
+      <c r="FE6" t="s">
+        <v>255</v>
+      </c>
+      <c r="FF6" t="s">
         <v>138</v>
       </c>
-      <c r="FC4" s="2" t="s">
+      <c r="FG6" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="FD4" s="2" t="s">
+      <c r="FH6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="FE4" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="FF4" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>312</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>317</v>
-      </c>
-      <c r="FI4" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="FJ4" s="2" t="s">
+      <c r="FI6" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="FJ6" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="FK6" t="s">
+        <v>377</v>
+      </c>
+      <c r="FL6" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="FM6" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="FN6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="FK4" s="2" t="s">
+      <c r="FO6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="FL4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FM4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FN4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FO4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FP4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FQ4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FR4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FS4" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="FT4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FU4" s="2" t="s">
+      <c r="FP6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FQ6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FR6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FS6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FT6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FU6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FV6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FW6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="FX6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="FY6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="FV4" s="2" t="s">
+      <c r="FZ6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="FW4" s="2" t="s">
+      <c r="GA6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="FX4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FY4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="FZ4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="GA4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="GB4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="GC4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="GD4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="GE4" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="GB6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GC6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GD6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="GE6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GF6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GG6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GH6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="GI6" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:191">
+      <c r="FM7" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="NGINUser_1306@gmail.com" r:id="rId1" ref="AP2"/>
-    <hyperlink display="NGINUseredit_1306@gmail.com" r:id="rId2" ref="AW2"/>
-    <hyperlink display="ngin1306@test.com" r:id="rId3" ref="M2"/>
-    <hyperlink display="nginreseller1306@gmail.com" r:id="rId4" ref="CI2"/>
-    <hyperlink display="nginreselleredit1306@gmail.com" r:id="rId5" ref="CQ2"/>
-    <hyperlink display="NGINUser_1306@gmail.com" r:id="rId6" ref="AP3"/>
-    <hyperlink display="NGINUseredit_1306@gmail.com" r:id="rId7" ref="AW3"/>
-    <hyperlink display="ngin1306@test.com" r:id="rId8" ref="M3"/>
-    <hyperlink display="nginreseller1306@gmail.com" r:id="rId9" ref="CI3"/>
-    <hyperlink display="nginreselleredit1306@gmail.com" r:id="rId10" ref="CQ3"/>
-    <hyperlink display="NGINUser_1306@gmail.com" r:id="rId11" ref="AP4"/>
-    <hyperlink display="NGINUseredit_1306@gmail.com" r:id="rId12" ref="AW4"/>
-    <hyperlink display="ngin1306@test.com" r:id="rId13" ref="M4"/>
-    <hyperlink display="nginreseller1306@gmail.com" r:id="rId14" ref="CI4"/>
-    <hyperlink display="nginreselleredit1306@gmail.com" r:id="rId15" ref="CQ4"/>
+    <hyperlink ref="AP2" r:id="rId1" display="NGINUser_1306@gmail.com"/>
+    <hyperlink ref="AW2" r:id="rId2" display="NGINUseredit_1306@gmail.com"/>
+    <hyperlink ref="M2" r:id="rId3" display="ngin1306@test.com"/>
+    <hyperlink ref="CM2" r:id="rId4" display="nginreseller1306@gmail.com"/>
+    <hyperlink ref="CU2" r:id="rId5" display="nginreselleredit1306@gmail.com"/>
+    <hyperlink ref="AP3" r:id="rId6" display="NGINUser_1306@gmail.com"/>
+    <hyperlink ref="AW3" r:id="rId7" display="NGINUseredit_1306@gmail.com"/>
+    <hyperlink ref="M3" r:id="rId8" display="ngin1306@test.com"/>
+    <hyperlink ref="CM3" r:id="rId9" display="nginreseller1306@gmail.com"/>
+    <hyperlink ref="CU3" r:id="rId10" display="nginreselleredit1306@gmail.com"/>
+    <hyperlink ref="AP4" r:id="rId11" display="NGINUser_1306@gmail.com"/>
+    <hyperlink ref="AW4" r:id="rId12" display="NGINUseredit_1306@gmail.com"/>
+    <hyperlink ref="M4" r:id="rId13" display="ngin1306@test.com"/>
+    <hyperlink ref="CM4" r:id="rId14" display="nginreseller1306@gmail.com"/>
+    <hyperlink ref="CU4" r:id="rId15" display="nginreselleredit1306@gmail.com"/>
+    <hyperlink ref="AP5" r:id="rId16" display="NGINUser_1306@gmail.com"/>
+    <hyperlink ref="AW5" r:id="rId17" display="NGINUseredit_1306@gmail.com"/>
+    <hyperlink ref="M5" r:id="rId18" display="ngin1306@test.com"/>
+    <hyperlink ref="CM5" r:id="rId19" display="nginreseller1306@gmail.com"/>
+    <hyperlink ref="CU5" r:id="rId20" display="nginreselleredit1306@gmail.com"/>
+    <hyperlink ref="AP6" r:id="rId21" display="NGINUser_1306@gmail.com"/>
+    <hyperlink ref="AW6" r:id="rId22" display="NGINUseredit_1306@gmail.com"/>
+    <hyperlink ref="M6" r:id="rId23" display="ngin1306@test.com"/>
+    <hyperlink ref="CM6" r:id="rId24" display="nginreseller1306@gmail.com"/>
+    <hyperlink ref="CU6" r:id="rId25" display="nginreselleredit1306@gmail.com"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/APTAutomationProject/src/com/colt/qa/datalibrary/APT_NGIN.xlsx
+++ b/APTAutomationProject/src/com/colt/qa/datalibrary/APT_NGIN.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="NGIN" sheetId="2" r:id="rId1"/>
+    <sheet name="Unique Data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="405">
   <si>
     <t>ExistingOrderNumber</t>
   </si>
@@ -825,412 +826,415 @@
     <t>ChangeOrder_existingOrderNumber</t>
   </si>
   <si>
-    <t>NGIN3314</t>
-  </si>
-  <si>
-    <t>ngindomain3314.com</t>
-  </si>
-  <si>
-    <t>nginocn3314</t>
-  </si>
-  <si>
-    <t>testreference3314</t>
-  </si>
-  <si>
-    <t>ngincontact3314</t>
-  </si>
-  <si>
-    <t>ngin3314@test.com</t>
-  </si>
-  <si>
-    <t>NGINOrder_3314</t>
-  </si>
-  <si>
-    <t>NGINRFI_3314</t>
-  </si>
-  <si>
-    <t>NGINService_3314</t>
-  </si>
-  <si>
-    <t>NGINUser_3314</t>
-  </si>
-  <si>
-    <t>User_3314</t>
-  </si>
-  <si>
-    <t>NGINUser_3314@gmail.com</t>
-  </si>
-  <si>
-    <t>NGINUseredit3314</t>
-  </si>
-  <si>
-    <t>Useredit3314</t>
-  </si>
-  <si>
-    <t>NGINUseredit_3314@gmail.com</t>
-  </si>
-  <si>
-    <t>NGINOrderedit_3314</t>
-  </si>
-  <si>
-    <t>NGINRFIedit_3314</t>
-  </si>
-  <si>
-    <t>nginreseller3314@gmail.com</t>
-  </si>
-  <si>
-    <t>nginreselleredit3314@gmail.com</t>
-  </si>
-  <si>
-    <t>Reseller3314</t>
-  </si>
-  <si>
-    <t>Reselleredit3314</t>
-  </si>
-  <si>
-    <t>AT-nginocn3314</t>
-  </si>
-  <si>
-    <t>NGIN3421</t>
-  </si>
-  <si>
-    <t>ngindomain3421.com</t>
-  </si>
-  <si>
-    <t>nginocn3421</t>
-  </si>
-  <si>
-    <t>testreference3421</t>
-  </si>
-  <si>
-    <t>ngincontact3421</t>
-  </si>
-  <si>
-    <t>ngin3421@test.com</t>
-  </si>
-  <si>
-    <t>NGINOrder_3421</t>
-  </si>
-  <si>
-    <t>NGINRFI_3421</t>
-  </si>
-  <si>
-    <t>NGINService_3421</t>
-  </si>
-  <si>
-    <t>NGINUser_3421</t>
-  </si>
-  <si>
-    <t>User_3421</t>
-  </si>
-  <si>
-    <t>NGINUser_3421@gmail.com</t>
-  </si>
-  <si>
-    <t>NGINUseredit3421</t>
-  </si>
-  <si>
-    <t>Useredit3421</t>
-  </si>
-  <si>
-    <t>NGINUseredit_3421@gmail.com</t>
-  </si>
-  <si>
-    <t>NGINOrderedit_3421</t>
-  </si>
-  <si>
-    <t>NGINRFIedit_3421</t>
-  </si>
-  <si>
-    <t>nginreseller3421@gmail.com</t>
-  </si>
-  <si>
-    <t>nginreselleredit3421@gmail.com</t>
-  </si>
-  <si>
-    <t>Reseller3421</t>
-  </si>
-  <si>
-    <t>Reselleredit3421</t>
-  </si>
-  <si>
-    <t>AT-nginocn3421</t>
-  </si>
-  <si>
-    <t>NGIN3512</t>
-  </si>
-  <si>
-    <t>ngindomain3512.com</t>
-  </si>
-  <si>
-    <t>nginocn3512</t>
-  </si>
-  <si>
-    <t>testreference3512</t>
-  </si>
-  <si>
-    <t>ngincontact3512</t>
-  </si>
-  <si>
-    <t>ngin3512@test.com</t>
-  </si>
-  <si>
-    <t>NGINOrder_3512</t>
-  </si>
-  <si>
-    <t>NGINRFI_3512</t>
-  </si>
-  <si>
-    <t>NGINService_3512</t>
-  </si>
-  <si>
-    <t>NGINUser_3512</t>
-  </si>
-  <si>
-    <t>User_3512</t>
-  </si>
-  <si>
-    <t>NGINUser_3512@gmail.com</t>
-  </si>
-  <si>
-    <t>NGINUseredit3512</t>
-  </si>
-  <si>
-    <t>Useredit3512</t>
-  </si>
-  <si>
-    <t>NGINUseredit_3512@gmail.com</t>
-  </si>
-  <si>
-    <t>NGINOrderedit_3512</t>
-  </si>
-  <si>
-    <t>NGINRFIedit_3512</t>
-  </si>
-  <si>
-    <t>nginreseller3512@gmail.com</t>
-  </si>
-  <si>
-    <t>nginreselleredit3512@gmail.com</t>
-  </si>
-  <si>
-    <t>Reseller3512</t>
-  </si>
-  <si>
-    <t>Reselleredit3512</t>
-  </si>
-  <si>
-    <t>AT-nginocn3512</t>
-  </si>
-  <si>
-    <t>NGIN3602</t>
-  </si>
-  <si>
-    <t>ngindomain3602.com</t>
-  </si>
-  <si>
-    <t>nginocn3602</t>
-  </si>
-  <si>
-    <t>testreference3602</t>
-  </si>
-  <si>
-    <t>ngincontact3602</t>
-  </si>
-  <si>
-    <t>ngin3602@test.com</t>
-  </si>
-  <si>
-    <t>NGINOrder_3602</t>
-  </si>
-  <si>
-    <t>NGINRFI_3602</t>
-  </si>
-  <si>
-    <t>NGINService_3602</t>
-  </si>
-  <si>
-    <t>NGINUser_3602</t>
-  </si>
-  <si>
-    <t>User_3602</t>
-  </si>
-  <si>
-    <t>NGINUser_3602@gmail.com</t>
-  </si>
-  <si>
-    <t>NGINUseredit3602</t>
-  </si>
-  <si>
-    <t>Useredit3602</t>
-  </si>
-  <si>
-    <t>NGINUseredit_3602@gmail.com</t>
-  </si>
-  <si>
-    <t>NGINOrderedit_3602</t>
-  </si>
-  <si>
-    <t>NGINRFIedit_3602</t>
-  </si>
-  <si>
-    <t>nginreseller3602@gmail.com</t>
-  </si>
-  <si>
-    <t>nginreselleredit3602@gmail.com</t>
-  </si>
-  <si>
-    <t>Reseller3602</t>
-  </si>
-  <si>
-    <t>Reselleredit3602</t>
-  </si>
-  <si>
-    <t>AT-nginocn3602</t>
-  </si>
-  <si>
-    <t>NGIN3704</t>
-  </si>
-  <si>
-    <t>ngindomain3704.com</t>
-  </si>
-  <si>
-    <t>nginocn3704</t>
-  </si>
-  <si>
-    <t>testreference3704</t>
-  </si>
-  <si>
-    <t>ngincontact3704</t>
-  </si>
-  <si>
-    <t>ngin3704@test.com</t>
-  </si>
-  <si>
-    <t>NGINOrder_3704</t>
-  </si>
-  <si>
-    <t>NGINRFI_3704</t>
-  </si>
-  <si>
-    <t>NGINService_3704</t>
-  </si>
-  <si>
-    <t>NGINUser_3704</t>
-  </si>
-  <si>
-    <t>User_3704</t>
-  </si>
-  <si>
-    <t>NGINUser_3704@gmail.com</t>
-  </si>
-  <si>
-    <t>NGINUseredit3704</t>
-  </si>
-  <si>
-    <t>Useredit3704</t>
-  </si>
-  <si>
-    <t>NGINUseredit_3704@gmail.com</t>
-  </si>
-  <si>
-    <t>NGINOrderedit_3704</t>
-  </si>
-  <si>
-    <t>NGINRFIedit_3704</t>
-  </si>
-  <si>
-    <t>nginreseller3704@gmail.com</t>
-  </si>
-  <si>
-    <t>nginreselleredit3704@gmail.com</t>
-  </si>
-  <si>
-    <t>Reseller3704</t>
-  </si>
-  <si>
-    <t>Reselleredit3704</t>
-  </si>
-  <si>
-    <t>AT-nginocn3704</t>
-  </si>
-  <si>
-    <t>1227321</t>
-  </si>
-  <si>
-    <t>1228124</t>
-  </si>
-  <si>
-    <t>1228415</t>
-  </si>
-  <si>
-    <t>1228532</t>
-  </si>
-  <si>
-    <t>1228641</t>
-  </si>
-  <si>
-    <t>1226721</t>
-  </si>
-  <si>
-    <t>1229425</t>
-  </si>
-  <si>
-    <t>1226842</t>
-  </si>
-  <si>
-    <t>1229536</t>
-  </si>
-  <si>
-    <t>1226951</t>
-  </si>
-  <si>
-    <t>1229672</t>
-  </si>
-  <si>
-    <t>1227253</t>
-  </si>
-  <si>
-    <t>1229713</t>
-  </si>
-  <si>
-    <t>1227845</t>
-  </si>
-  <si>
-    <t>1229862</t>
-  </si>
-  <si>
-    <t>1221752</t>
-  </si>
-  <si>
-    <t>1221442</t>
-  </si>
-  <si>
-    <t>1221902</t>
-  </si>
-  <si>
-    <t>1221056</t>
-  </si>
-  <si>
-    <t>1221134</t>
-  </si>
-  <si>
-    <t>431227321</t>
-  </si>
-  <si>
-    <t>431228124</t>
-  </si>
-  <si>
-    <t>431228415</t>
-  </si>
-  <si>
-    <t>431228532</t>
-  </si>
-  <si>
-    <t>431228641</t>
-  </si>
-  <si>
     <t>D:\APT_Phase1_Automation_Project_Deliverables\APTAutomationProject\src\NGINBulkNew.csv</t>
+  </si>
+  <si>
+    <t>Columns for which unique data to be provided</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>If multiple row data is executed, then only for 1 data this should be provided as 'Yes' input. Remaining all should be as 'No'</t>
+  </si>
+  <si>
+    <t>This column value should be same as the 'AddSAN_SANNumber' column value</t>
+  </si>
+  <si>
+    <t>Customer name value from different service should be provided</t>
+  </si>
+  <si>
+    <t>Any existing Service Identification value to which SAN should be moved</t>
+  </si>
+  <si>
+    <t>Existing data should be provided from another service, to which the bulk move should happen</t>
+  </si>
+  <si>
+    <t>AT-nginocn3604</t>
+  </si>
+  <si>
+    <t>431228534</t>
+  </si>
+  <si>
+    <t>431228643</t>
+  </si>
+  <si>
+    <t>NGIN3317</t>
+  </si>
+  <si>
+    <t>ngindomain3317.com</t>
+  </si>
+  <si>
+    <t>nginocn3317</t>
+  </si>
+  <si>
+    <t>testreference3317</t>
+  </si>
+  <si>
+    <t>ngincontact3317</t>
+  </si>
+  <si>
+    <t>ngin3317@test.com</t>
+  </si>
+  <si>
+    <t>NGINOrder_3317</t>
+  </si>
+  <si>
+    <t>NGINRFI_3317</t>
+  </si>
+  <si>
+    <t>NGINService_3317</t>
+  </si>
+  <si>
+    <t>NGINUser_3317</t>
+  </si>
+  <si>
+    <t>User_3317</t>
+  </si>
+  <si>
+    <t>NGINUser_3317@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINUseredit3317</t>
+  </si>
+  <si>
+    <t>Useredit3317</t>
+  </si>
+  <si>
+    <t>NGINUseredit_3317@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINOrderedit_3317</t>
+  </si>
+  <si>
+    <t>NGINRFIedit_3317</t>
+  </si>
+  <si>
+    <t>nginreseller3317@gmail.com</t>
+  </si>
+  <si>
+    <t>nginreselleredit3317@gmail.com</t>
+  </si>
+  <si>
+    <t>Reseller3317</t>
+  </si>
+  <si>
+    <t>Reselleredit3317</t>
+  </si>
+  <si>
+    <t>NGIN3424</t>
+  </si>
+  <si>
+    <t>ngindomain3424.com</t>
+  </si>
+  <si>
+    <t>nginocn3424</t>
+  </si>
+  <si>
+    <t>testreference3424</t>
+  </si>
+  <si>
+    <t>ngincontact3424</t>
+  </si>
+  <si>
+    <t>ngin3424@test.com</t>
+  </si>
+  <si>
+    <t>NGINOrder_3424</t>
+  </si>
+  <si>
+    <t>NGINRFI_3424</t>
+  </si>
+  <si>
+    <t>NGINService_3424</t>
+  </si>
+  <si>
+    <t>NGINUser_3424</t>
+  </si>
+  <si>
+    <t>User_3424</t>
+  </si>
+  <si>
+    <t>NGINUser_3424@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINUseredit3424</t>
+  </si>
+  <si>
+    <t>Useredit3424</t>
+  </si>
+  <si>
+    <t>NGINUseredit_3424@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINOrderedit_3424</t>
+  </si>
+  <si>
+    <t>NGINRFIedit_3424</t>
+  </si>
+  <si>
+    <t>nginreseller3424@gmail.com</t>
+  </si>
+  <si>
+    <t>nginreselleredit3424@gmail.com</t>
+  </si>
+  <si>
+    <t>Reseller3424</t>
+  </si>
+  <si>
+    <t>Reselleredit3424</t>
+  </si>
+  <si>
+    <t>NGIN3515</t>
+  </si>
+  <si>
+    <t>ngindomain3515.com</t>
+  </si>
+  <si>
+    <t>nginocn3515</t>
+  </si>
+  <si>
+    <t>testreference3515</t>
+  </si>
+  <si>
+    <t>ngincontact3515</t>
+  </si>
+  <si>
+    <t>ngin3515@test.com</t>
+  </si>
+  <si>
+    <t>NGINOrder_3515</t>
+  </si>
+  <si>
+    <t>NGINRFI_3515</t>
+  </si>
+  <si>
+    <t>NGINService_3515</t>
+  </si>
+  <si>
+    <t>NGINUser_3515</t>
+  </si>
+  <si>
+    <t>User_3515</t>
+  </si>
+  <si>
+    <t>NGINUser_3515@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINUseredit3515</t>
+  </si>
+  <si>
+    <t>Useredit3515</t>
+  </si>
+  <si>
+    <t>NGINUseredit_3515@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINOrderedit_3515</t>
+  </si>
+  <si>
+    <t>NGINRFIedit_3515</t>
+  </si>
+  <si>
+    <t>nginreseller3515@gmail.com</t>
+  </si>
+  <si>
+    <t>nginreselleredit3515@gmail.com</t>
+  </si>
+  <si>
+    <t>Reseller3515</t>
+  </si>
+  <si>
+    <t>Reselleredit3515</t>
+  </si>
+  <si>
+    <t>NGIN3605</t>
+  </si>
+  <si>
+    <t>ngindomain3605.com</t>
+  </si>
+  <si>
+    <t>nginocn3605</t>
+  </si>
+  <si>
+    <t>testreference3605</t>
+  </si>
+  <si>
+    <t>ngincontact3605</t>
+  </si>
+  <si>
+    <t>ngin3605@test.com</t>
+  </si>
+  <si>
+    <t>NGINOrder_3605</t>
+  </si>
+  <si>
+    <t>NGINRFI_3605</t>
+  </si>
+  <si>
+    <t>NGINService_3605</t>
+  </si>
+  <si>
+    <t>NGINUser_3605</t>
+  </si>
+  <si>
+    <t>User_3605</t>
+  </si>
+  <si>
+    <t>NGINUser_3605@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINUseredit3605</t>
+  </si>
+  <si>
+    <t>Useredit3605</t>
+  </si>
+  <si>
+    <t>NGINUseredit_3605@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINOrderedit_3605</t>
+  </si>
+  <si>
+    <t>NGINRFIedit_3605</t>
+  </si>
+  <si>
+    <t>nginreseller3605@gmail.com</t>
+  </si>
+  <si>
+    <t>nginreselleredit3605@gmail.com</t>
+  </si>
+  <si>
+    <t>Reseller3605</t>
+  </si>
+  <si>
+    <t>Reselleredit3605</t>
+  </si>
+  <si>
+    <t>AT-nginocn3605</t>
+  </si>
+  <si>
+    <t>NGIN3710</t>
+  </si>
+  <si>
+    <t>ngindomain3710.com</t>
+  </si>
+  <si>
+    <t>nginocn3710</t>
+  </si>
+  <si>
+    <t>testreference3710</t>
+  </si>
+  <si>
+    <t>ngincontact3710</t>
+  </si>
+  <si>
+    <t>ngin3710@test.com</t>
+  </si>
+  <si>
+    <t>NGINOrder_3710</t>
+  </si>
+  <si>
+    <t>NGINRFI_3710</t>
+  </si>
+  <si>
+    <t>NGINService_3710</t>
+  </si>
+  <si>
+    <t>NGINUser_3710</t>
+  </si>
+  <si>
+    <t>User_3710</t>
+  </si>
+  <si>
+    <t>NGINUser_3710@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINUseredit3710</t>
+  </si>
+  <si>
+    <t>Useredit3710</t>
+  </si>
+  <si>
+    <t>NGINUseredit_3710@gmail.com</t>
+  </si>
+  <si>
+    <t>NGINOrderedit_3710</t>
+  </si>
+  <si>
+    <t>NGINRFIedit_3710</t>
+  </si>
+  <si>
+    <t>nginreseller3710@gmail.com</t>
+  </si>
+  <si>
+    <t>nginreselleredit3710@gmail.com</t>
+  </si>
+  <si>
+    <t>Reseller3710</t>
+  </si>
+  <si>
+    <t>Reselleredit3710</t>
+  </si>
+  <si>
+    <t>1227325</t>
+  </si>
+  <si>
+    <t>1228127</t>
+  </si>
+  <si>
+    <t>1228418</t>
+  </si>
+  <si>
+    <t>1228535</t>
+  </si>
+  <si>
+    <t>1228644</t>
+  </si>
+  <si>
+    <t>1221755</t>
+  </si>
+  <si>
+    <t>1221445</t>
+  </si>
+  <si>
+    <t>1221905</t>
+  </si>
+  <si>
+    <t>1221059</t>
+  </si>
+  <si>
+    <t>1221136</t>
+  </si>
+  <si>
+    <t>1226723</t>
+  </si>
+  <si>
+    <t>1226844</t>
+  </si>
+  <si>
+    <t>1226954</t>
+  </si>
+  <si>
+    <t>1227255</t>
+  </si>
+  <si>
+    <t>1227847</t>
+  </si>
+  <si>
+    <t>1229427</t>
+  </si>
+  <si>
+    <t>1229538</t>
+  </si>
+  <si>
+    <t>1229674</t>
+  </si>
+  <si>
+    <t>1229715</t>
+  </si>
+  <si>
+    <t>1229864</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1290,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1296,6 +1300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,7 +1325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1342,6 +1352,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1624,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HN6"/>
+  <dimension ref="A1:GI6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1769,11 +1786,12 @@
     <col min="150" max="150" width="29.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="151" max="151" width="13.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="152" max="152" width="15.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="153" max="154" width="9.140625" style="2" collapsed="1"/>
+    <col min="153" max="153" width="25.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="154" max="154" width="9.140625" style="2" collapsed="1"/>
     <col min="155" max="155" width="16.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="156" max="157" width="22.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="158" max="158" width="17.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="159" max="159" width="9.140625" style="2" collapsed="1"/>
+    <col min="159" max="159" width="18.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="160" max="160" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="161" max="161" width="27.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="162" max="162" width="24" style="2" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1803,8 +1821,7 @@
     <col min="189" max="189" width="9.140625" style="2" collapsed="1"/>
     <col min="190" max="190" width="22.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="191" max="191" width="38.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="192" max="222" width="9.140625" style="2"/>
-    <col min="223" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="192" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:191">
@@ -1814,25 +1831,25 @@
       <c r="B1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -1865,28 +1882,28 @@
       <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="15" t="s">
         <v>23</v>
       </c>
       <c r="AB1" s="1" t="s">
@@ -2036,28 +2053,28 @@
       <c r="BX1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CC1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CD1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CE1" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CF1" s="15" t="s">
         <v>267</v>
       </c>
       <c r="CG1" s="1" t="s">
@@ -2072,10 +2089,10 @@
       <c r="CJ1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CK1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CL1" s="15" t="s">
         <v>141</v>
       </c>
       <c r="CM1" s="1" t="s">
@@ -2138,7 +2155,7 @@
       <c r="DF1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DG1" s="15" t="s">
         <v>135</v>
       </c>
       <c r="DH1" s="1" t="s">
@@ -2180,7 +2197,7 @@
       <c r="DT1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DU1" s="15" t="s">
         <v>129</v>
       </c>
       <c r="DV1" s="1" t="s">
@@ -2279,19 +2296,19 @@
       <c r="FA1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FB1" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FC1" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FD1" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FE1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FF1" s="15" t="s">
         <v>121</v>
       </c>
       <c r="FG1" s="1" t="s">
@@ -2300,19 +2317,19 @@
       <c r="FH1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FI1" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="FJ1" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="FK1" s="1" t="s">
+      <c r="FK1" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="FL1" s="1" t="s">
+      <c r="FL1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="FM1" s="1" t="s">
+      <c r="FM1" s="15" t="s">
         <v>256</v>
       </c>
       <c r="FN1" s="1" t="s">
@@ -2396,31 +2413,31 @@
         <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>201</v>
@@ -2447,22 +2464,22 @@
         <v>134</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>25</v>
@@ -2495,10 +2512,10 @@
         <v>41</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>26</v>
@@ -2507,19 +2524,19 @@
         <v>46</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>203</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="AU2" s="2" t="s">
         <v>168</v>
@@ -2528,7 +2545,7 @@
         <v>59</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>204</v>
@@ -2615,25 +2632,25 @@
         <v>134</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="CB2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="CE2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="CG2" s="2" t="s">
         <v>62</v>
@@ -2651,10 +2668,10 @@
         <v>134</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>403</v>
+        <v>268</v>
       </c>
       <c r="CM2" s="5" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="CN2" s="2" t="s">
         <v>77</v>
@@ -2678,7 +2695,7 @@
         <v>172</v>
       </c>
       <c r="CU2" s="5" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="CV2" s="2" t="s">
         <v>88</v>
@@ -2702,7 +2719,7 @@
         <v>176</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="DD2" s="2" t="s">
         <v>6</v>
@@ -2714,7 +2731,7 @@
         <v>205</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="DH2" s="8" t="s">
         <v>132</v>
@@ -2756,7 +2773,7 @@
         <v>66</v>
       </c>
       <c r="DU2" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="DV2" s="2" t="s">
         <v>257</v>
@@ -2840,7 +2857,7 @@
         <v>143</v>
       </c>
       <c r="EW2" s="2" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="EX2" s="2" t="s">
         <v>254</v>
@@ -2876,19 +2893,19 @@
         <v>124</v>
       </c>
       <c r="FI2" s="2" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="FJ2" s="2" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="FK2" t="s">
-        <v>289</v>
-      </c>
-      <c r="FL2" s="2" t="s">
-        <v>398</v>
+        <v>276</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>277</v>
       </c>
       <c r="FM2" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="FN2" s="2" t="s">
         <v>137</v>
@@ -2971,31 +2988,31 @@
         <v>66</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>201</v>
@@ -3022,22 +3039,22 @@
         <v>134</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>25</v>
@@ -3070,10 +3087,10 @@
         <v>41</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AN3" s="2" t="s">
         <v>26</v>
@@ -3082,19 +3099,19 @@
         <v>46</v>
       </c>
       <c r="AP3" s="5" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="AQ3" s="2" t="s">
         <v>203</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="AU3" s="2" t="s">
         <v>168</v>
@@ -3103,7 +3120,7 @@
         <v>59</v>
       </c>
       <c r="AW3" s="5" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="AX3" s="2" t="s">
         <v>204</v>
@@ -3190,25 +3207,25 @@
         <v>134</v>
       </c>
       <c r="BZ3" s="2" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="CA3" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="CB3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CC3" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="CB3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="CC3" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="CD3" s="2" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="CE3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="CF3" s="2" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="CG3" s="2" t="s">
         <v>62</v>
@@ -3226,10 +3243,10 @@
         <v>134</v>
       </c>
       <c r="CL3" s="2" t="s">
-        <v>403</v>
+        <v>268</v>
       </c>
       <c r="CM3" s="5" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="CN3" s="2" t="s">
         <v>77</v>
@@ -3253,7 +3270,7 @@
         <v>172</v>
       </c>
       <c r="CU3" s="5" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="CV3" s="2" t="s">
         <v>88</v>
@@ -3277,7 +3294,7 @@
         <v>176</v>
       </c>
       <c r="DC3" s="2" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="DD3" s="2" t="s">
         <v>6</v>
@@ -3289,7 +3306,7 @@
         <v>205</v>
       </c>
       <c r="DG3" s="2" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="DH3" s="8" t="s">
         <v>132</v>
@@ -3331,7 +3348,7 @@
         <v>66</v>
       </c>
       <c r="DU3" s="2" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="DV3" s="2" t="s">
         <v>257</v>
@@ -3415,7 +3432,7 @@
         <v>143</v>
       </c>
       <c r="EW3" s="2" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="EX3" s="2" t="s">
         <v>254</v>
@@ -3451,19 +3468,19 @@
         <v>124</v>
       </c>
       <c r="FI3" s="2" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="FJ3" s="2" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="FK3" t="s">
-        <v>311</v>
-      </c>
-      <c r="FL3" s="2" t="s">
-        <v>399</v>
+        <v>276</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>277</v>
       </c>
       <c r="FM3" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="FN3" s="2" t="s">
         <v>137</v>
@@ -3546,31 +3563,31 @@
         <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>201</v>
@@ -3597,22 +3614,22 @@
         <v>134</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>25</v>
@@ -3645,10 +3662,10 @@
         <v>41</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="AN4" s="2" t="s">
         <v>26</v>
@@ -3657,19 +3674,19 @@
         <v>46</v>
       </c>
       <c r="AP4" s="5" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AQ4" s="2" t="s">
         <v>203</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="AU4" s="2" t="s">
         <v>168</v>
@@ -3678,7 +3695,7 @@
         <v>59</v>
       </c>
       <c r="AW4" s="5" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>204</v>
@@ -3765,25 +3782,25 @@
         <v>134</v>
       </c>
       <c r="BZ4" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="CA4" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="CB4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CC4" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="CA4" s="2" t="s">
+      <c r="CD4" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="CB4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="CC4" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="CD4" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="CE4" s="2" t="s">
         <v>66</v>
       </c>
       <c r="CF4" s="2" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="CG4" s="2" t="s">
         <v>62</v>
@@ -3801,10 +3818,10 @@
         <v>134</v>
       </c>
       <c r="CL4" s="2" t="s">
-        <v>403</v>
+        <v>268</v>
       </c>
       <c r="CM4" s="5" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="CN4" s="2" t="s">
         <v>77</v>
@@ -3828,7 +3845,7 @@
         <v>172</v>
       </c>
       <c r="CU4" s="5" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="CV4" s="2" t="s">
         <v>88</v>
@@ -3852,7 +3869,7 @@
         <v>176</v>
       </c>
       <c r="DC4" s="2" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="DD4" s="2" t="s">
         <v>6</v>
@@ -3864,7 +3881,7 @@
         <v>205</v>
       </c>
       <c r="DG4" s="2" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="DH4" s="8" t="s">
         <v>132</v>
@@ -3906,7 +3923,7 @@
         <v>66</v>
       </c>
       <c r="DU4" s="2" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="DV4" s="2" t="s">
         <v>257</v>
@@ -3990,7 +4007,7 @@
         <v>143</v>
       </c>
       <c r="EW4" s="2" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="EX4" s="2" t="s">
         <v>254</v>
@@ -4026,19 +4043,19 @@
         <v>124</v>
       </c>
       <c r="FI4" s="2" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="FJ4" s="2" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="FK4" t="s">
-        <v>333</v>
-      </c>
-      <c r="FL4" s="2" t="s">
-        <v>400</v>
+        <v>276</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>277</v>
       </c>
       <c r="FM4" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="FN4" s="2" t="s">
         <v>137</v>
@@ -4121,31 +4138,31 @@
         <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>201</v>
@@ -4172,22 +4189,22 @@
         <v>134</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="AB5" s="2" t="s">
         <v>25</v>
@@ -4220,10 +4237,10 @@
         <v>41</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="AN5" s="2" t="s">
         <v>26</v>
@@ -4232,19 +4249,19 @@
         <v>46</v>
       </c>
       <c r="AP5" s="5" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="AQ5" s="2" t="s">
         <v>203</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AU5" s="2" t="s">
         <v>168</v>
@@ -4253,7 +4270,7 @@
         <v>59</v>
       </c>
       <c r="AW5" s="5" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="AX5" s="2" t="s">
         <v>204</v>
@@ -4340,25 +4357,25 @@
         <v>134</v>
       </c>
       <c r="BZ5" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="CA5" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="CB5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CC5" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="CD5" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="CA5" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="CB5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="CC5" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="CD5" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="CE5" s="2" t="s">
         <v>66</v>
       </c>
       <c r="CF5" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="CG5" s="2" t="s">
         <v>62</v>
@@ -4376,10 +4393,10 @@
         <v>134</v>
       </c>
       <c r="CL5" s="2" t="s">
-        <v>403</v>
+        <v>268</v>
       </c>
       <c r="CM5" s="5" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="CN5" s="2" t="s">
         <v>77</v>
@@ -4403,7 +4420,7 @@
         <v>172</v>
       </c>
       <c r="CU5" s="5" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="CV5" s="2" t="s">
         <v>88</v>
@@ -4427,7 +4444,7 @@
         <v>176</v>
       </c>
       <c r="DC5" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="DD5" s="2" t="s">
         <v>6</v>
@@ -4439,7 +4456,7 @@
         <v>205</v>
       </c>
       <c r="DG5" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="DH5" s="8" t="s">
         <v>132</v>
@@ -4481,7 +4498,7 @@
         <v>66</v>
       </c>
       <c r="DU5" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="DV5" s="2" t="s">
         <v>257</v>
@@ -4565,7 +4582,7 @@
         <v>143</v>
       </c>
       <c r="EW5" s="2" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="EX5" s="2" t="s">
         <v>254</v>
@@ -4601,19 +4618,19 @@
         <v>124</v>
       </c>
       <c r="FI5" s="2" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="FJ5" s="2" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="FK5" t="s">
-        <v>355</v>
-      </c>
-      <c r="FL5" s="2" t="s">
-        <v>401</v>
+        <v>363</v>
+      </c>
+      <c r="FL5" t="s">
+        <v>277</v>
       </c>
       <c r="FM5" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="FN5" s="2" t="s">
         <v>137</v>
@@ -4696,31 +4713,31 @@
         <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>58</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>201</v>
@@ -4747,22 +4764,22 @@
         <v>134</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>25</v>
@@ -4795,10 +4812,10 @@
         <v>41</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="AN6" s="2" t="s">
         <v>26</v>
@@ -4807,19 +4824,19 @@
         <v>46</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="AQ6" s="2" t="s">
         <v>203</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AU6" s="2" t="s">
         <v>168</v>
@@ -4828,7 +4845,7 @@
         <v>59</v>
       </c>
       <c r="AW6" s="5" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AX6" s="2" t="s">
         <v>204</v>
@@ -4915,25 +4932,25 @@
         <v>134</v>
       </c>
       <c r="BZ6" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="CA6" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="CB6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CC6" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="CD6" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="CA6" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="CB6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="CC6" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="CD6" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="CE6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="CF6" s="2" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="CG6" s="2" t="s">
         <v>62</v>
@@ -4951,10 +4968,10 @@
         <v>134</v>
       </c>
       <c r="CL6" s="2" t="s">
-        <v>403</v>
+        <v>268</v>
       </c>
       <c r="CM6" s="5" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="CN6" s="2" t="s">
         <v>77</v>
@@ -4978,7 +4995,7 @@
         <v>172</v>
       </c>
       <c r="CU6" s="5" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="CV6" s="2" t="s">
         <v>88</v>
@@ -5002,7 +5019,7 @@
         <v>176</v>
       </c>
       <c r="DC6" s="2" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="DD6" s="2" t="s">
         <v>6</v>
@@ -5014,7 +5031,7 @@
         <v>205</v>
       </c>
       <c r="DG6" s="2" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="DH6" s="8" t="s">
         <v>132</v>
@@ -5056,7 +5073,7 @@
         <v>66</v>
       </c>
       <c r="DU6" s="2" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="DV6" s="2" t="s">
         <v>257</v>
@@ -5140,7 +5157,7 @@
         <v>143</v>
       </c>
       <c r="EW6" s="2" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="EX6" s="2" t="s">
         <v>254</v>
@@ -5176,19 +5193,19 @@
         <v>124</v>
       </c>
       <c r="FI6" s="2" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="FJ6" s="2" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="FK6" t="s">
-        <v>377</v>
-      </c>
-      <c r="FL6" s="2" t="s">
-        <v>402</v>
+        <v>276</v>
+      </c>
+      <c r="FL6" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="FM6" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="FN6" s="2" t="s">
         <v>137</v>
@@ -5288,4 +5305,171 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="111.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="17"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B18:B20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>